--- a/tests/gait_old/data/manual_gait_turn_results.xlsx
+++ b/tests/gait_old/data/manual_gait_turn_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukasadamowicz/Documents/Packages/scikit-digital-health/tests/gait_old/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682D7AA4-FE9A-8D4F-800D-D3D424DDA981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F8F254-BB5C-8F46-A580-3C1A12A73272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="500" windowWidth="48980" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -541,7 +541,7 @@
   <dimension ref="A1:AJ59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I57"/>
+      <selection activeCell="L2" sqref="L2:L59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -679,16 +679,18 @@
         <v>245</v>
       </c>
       <c r="H2">
-        <v>237</v>
+        <f>E3</f>
+        <v>238</v>
       </c>
       <c r="I2">
+        <f>E4</f>
         <v>266</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2">
-        <v>6.8381776752976089E-2</v>
+        <v>6.9652986816055057E-2</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -698,11 +700,11 @@
       </c>
       <c r="N2">
         <f>(H2-E2)/50</f>
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="O2">
         <f>N3-N2</f>
-        <v>-2.0000000000000018E-2</v>
+        <v>-5.9999999999999942E-2</v>
       </c>
       <c r="P2">
         <f>(I2-E2)/50</f>
@@ -710,7 +712,7 @@
       </c>
       <c r="Q2">
         <f>P3-P2</f>
-        <v>-5.9999999999999831E-2</v>
+        <v>-7.9999999999999849E-2</v>
       </c>
       <c r="R2">
         <f>(G2-E2)/50</f>
@@ -718,7 +720,7 @@
       </c>
       <c r="S2">
         <f>R3-R2</f>
-        <v>-4.0000000000000036E-2</v>
+        <v>-6.0000000000000053E-2</v>
       </c>
       <c r="T2">
         <f>(I2-G2)/50</f>
@@ -734,59 +736,59 @@
       </c>
       <c r="W2">
         <f>V3-V2</f>
-        <v>0</v>
+        <v>-1.999999999999999E-2</v>
       </c>
       <c r="X2">
         <f>(G2-H2)/50</f>
-        <v>0.16</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Y2">
         <f>X3-X2</f>
-        <v>-1.999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="Z2">
         <f>V2+X2</f>
-        <v>0.32</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="AA2">
         <f>Z3-Z2</f>
-        <v>-1.9999999999999962E-2</v>
+        <v>-2.0000000000000018E-2</v>
       </c>
       <c r="AB2">
         <f>(H2-F2)/50</f>
-        <v>0.44</v>
+        <v>0.46</v>
       </c>
       <c r="AC2">
         <f>AB3-AB2</f>
-        <v>-2.0000000000000018E-2</v>
+        <v>-4.0000000000000036E-2</v>
       </c>
       <c r="AD2">
         <f>2*SQRT(2 * M2 * K2 - K2 * K2)</f>
-        <v>0.72552088135748893</v>
+        <v>0.7319916216860326</v>
       </c>
       <c r="AE2">
         <f>AD3-AD2</f>
-        <v>-5.0129862203220354E-2</v>
+        <v>8.8259460581881388E-2</v>
       </c>
       <c r="AF2">
         <f>AD3+AD2</f>
-        <v>1.4009119005117574</v>
+        <v>1.5522427039539466</v>
       </c>
       <c r="AG2">
         <f>AF3-AF2</f>
-        <v>5.9875332646033286E-2</v>
+        <v>5.5057423781079029E-2</v>
       </c>
       <c r="AH2">
         <f>AF2/P2</f>
-        <v>1.1872134750099639</v>
+        <v>1.3154599186050395</v>
       </c>
       <c r="AI2">
         <f>AH3-AH2</f>
-        <v>0.11706084030949193</v>
+        <v>0.14572201569952914</v>
       </c>
       <c r="AJ2">
         <f>60/N2</f>
-        <v>100</v>
+        <v>96.774193548387103</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.2">
@@ -803,7 +805,7 @@
         <v>52</v>
       </c>
       <c r="E3">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F3">
         <v>245</v>
@@ -812,16 +814,18 @@
         <v>273</v>
       </c>
       <c r="H3">
+        <f t="shared" ref="H3:H58" si="0">E4</f>
         <v>266</v>
       </c>
       <c r="I3">
+        <f t="shared" ref="I3:I57" si="1">E5</f>
         <v>293</v>
       </c>
       <c r="J3">
         <v>3</v>
       </c>
       <c r="K3">
-        <v>5.897016112594345E-2</v>
+        <v>8.8319606802581094E-2</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -830,96 +834,96 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N58" si="0">(H3-E3)/50</f>
-        <v>0.57999999999999996</v>
+        <f t="shared" ref="N3:N58" si="2">(H3-E3)/50</f>
+        <v>0.56000000000000005</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O57" si="1">N4-N3</f>
-        <v>-3.9999999999999925E-2</v>
+        <f t="shared" ref="O3:O57" si="3">N4-N3</f>
+        <v>-2.0000000000000018E-2</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P57" si="2">(I3-E3)/50</f>
-        <v>1.1200000000000001</v>
+        <f t="shared" ref="P3:P57" si="4">(I3-E3)/50</f>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q56" si="3">P4-P3</f>
-        <v>-6.0000000000000053E-2</v>
+        <f t="shared" ref="Q3:Q56" si="5">P4-P3</f>
+        <v>-4.0000000000000036E-2</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R59" si="4">(G3-E3)/50</f>
-        <v>0.72</v>
+        <f t="shared" ref="R3:R59" si="6">(G3-E3)/50</f>
+        <v>0.7</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S58" si="5">R4-R3</f>
-        <v>-3.9999999999999925E-2</v>
+        <f t="shared" ref="S3:S58" si="7">R4-R3</f>
+        <v>-1.9999999999999907E-2</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T57" si="6">(I3-G3)/50</f>
+        <f t="shared" ref="T3:T57" si="8">(I3-G3)/50</f>
         <v>0.4</v>
       </c>
       <c r="U3">
-        <f t="shared" ref="U3:U56" si="7">T4-T3</f>
+        <f t="shared" ref="U3:U56" si="9">T4-T3</f>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="V3">
-        <f t="shared" ref="V3:V59" si="8">(F3-E3)/50</f>
-        <v>0.16</v>
+        <f t="shared" ref="V3:V59" si="10">(F3-E3)/50</f>
+        <v>0.14000000000000001</v>
       </c>
       <c r="W3">
-        <f t="shared" ref="W3:W58" si="9">V4-V3</f>
-        <v>-1.999999999999999E-2</v>
+        <f t="shared" ref="W3:W58" si="11">V4-V3</f>
+        <v>0</v>
       </c>
       <c r="X3">
-        <f t="shared" ref="X3:X58" si="10">(G3-H3)/50</f>
+        <f t="shared" ref="X3:X58" si="12">(G3-H3)/50</f>
         <v>0.14000000000000001</v>
       </c>
       <c r="Y3">
-        <f t="shared" ref="Y3:Y57" si="11">X4-X3</f>
+        <f t="shared" ref="Y3:Y57" si="13">X4-X3</f>
         <v>0</v>
       </c>
       <c r="Z3">
-        <f t="shared" ref="Z3:Z58" si="12">V3+X3</f>
-        <v>0.30000000000000004</v>
+        <f t="shared" ref="Z3:Z58" si="14">V3+X3</f>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AA3">
-        <f t="shared" ref="AA3:AA57" si="13">Z4-Z3</f>
-        <v>-2.0000000000000018E-2</v>
+        <f t="shared" ref="AA3:AA57" si="15">Z4-Z3</f>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <f t="shared" ref="AB3:AB58" si="14">(H3-F3)/50</f>
+        <f t="shared" ref="AB3:AB58" si="16">(H3-F3)/50</f>
         <v>0.42</v>
       </c>
       <c r="AC3">
-        <f t="shared" ref="AC3:AC57" si="15">AB4-AB3</f>
+        <f t="shared" ref="AC3:AC57" si="17">AB4-AB3</f>
         <v>-1.9999999999999962E-2</v>
       </c>
       <c r="AD3">
-        <f t="shared" ref="AD3:AD58" si="16">2*SQRT(2 * M3 * K3 - K3 * K3)</f>
-        <v>0.67539101915426858</v>
+        <f t="shared" ref="AD3:AD58" si="18">2*SQRT(2 * M3 * K3 - K3 * K3)</f>
+        <v>0.82025108226791399</v>
       </c>
       <c r="AE3">
-        <f t="shared" ref="AE3:AE57" si="17">AD4-AD3</f>
-        <v>0.11000519484925353</v>
+        <f t="shared" ref="AE3:AE57" si="19">AD4-AD3</f>
+        <v>-3.320203680080247E-2</v>
       </c>
       <c r="AF3">
-        <f t="shared" ref="AF3:AF57" si="18">AD4+AD3</f>
-        <v>1.4607872331577907</v>
+        <f t="shared" ref="AF3:AF57" si="20">AD4+AD3</f>
+        <v>1.6073001277350256</v>
       </c>
       <c r="AG3">
-        <f t="shared" ref="AG3:AG56" si="19">AF4-AF3</f>
-        <v>9.9668396362339706E-2</v>
+        <f t="shared" ref="AG3:AG56" si="21">AF4-AF3</f>
+        <v>-4.5930645221186506E-2</v>
       </c>
       <c r="AH3">
-        <f t="shared" ref="AH3:AH57" si="20">AF3/P3</f>
-        <v>1.3042743153194558</v>
+        <f t="shared" ref="AH3:AH57" si="22">AF3/P3</f>
+        <v>1.4611819343045687</v>
       </c>
       <c r="AI3">
-        <f t="shared" ref="AI3:AI56" si="21">AH4-AH3</f>
-        <v>0.1678536370580257</v>
+        <f t="shared" ref="AI3:AI56" si="23">AH4-AH3</f>
+        <v>1.1808143538675653E-2</v>
       </c>
       <c r="AJ3">
-        <f t="shared" ref="AJ3:AJ58" si="22">60/N3</f>
-        <v>103.44827586206897</v>
+        <f t="shared" ref="AJ3:AJ58" si="24">60/N3</f>
+        <v>107.14285714285714</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.2">
@@ -945,16 +949,18 @@
         <v>300</v>
       </c>
       <c r="H4">
+        <f t="shared" si="0"/>
         <v>293</v>
       </c>
       <c r="I4">
+        <f t="shared" si="1"/>
         <v>319</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
       <c r="K4">
-        <v>8.0648310535419529E-2</v>
+        <v>8.1003140704903262E-2</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -963,95 +969,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.54</v>
       </c>
       <c r="O4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="P4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.06</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="R4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.68</v>
       </c>
       <c r="S4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.38</v>
       </c>
       <c r="U4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="V4">
-        <f t="shared" si="8"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="W4">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X4">
         <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
+      <c r="W4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="12"/>
+        <v>0.14000000000000001</v>
+      </c>
       <c r="Y4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.999999999999999E-2</v>
       </c>
       <c r="Z4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="AA4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AB4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
       <c r="AC4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="AD4">
-        <f t="shared" si="16"/>
-        <v>0.78539621400352211</v>
+        <f t="shared" si="18"/>
+        <v>0.78704904546711152</v>
       </c>
       <c r="AE4">
-        <f t="shared" si="17"/>
-        <v>-1.0336798486913823E-2</v>
+        <f t="shared" si="19"/>
+        <v>-1.2728608420383813E-2</v>
       </c>
       <c r="AF4">
-        <f t="shared" si="18"/>
-        <v>1.5604556295201304</v>
+        <f t="shared" si="20"/>
+        <v>1.5613694825138391</v>
       </c>
       <c r="AG4">
-        <f t="shared" si="19"/>
-        <v>-1.9445044878476647E-2</v>
+        <f t="shared" si="21"/>
+        <v>-2.4707591863784462E-2</v>
       </c>
       <c r="AH4">
-        <f t="shared" si="20"/>
-        <v>1.4721279523774815</v>
+        <f t="shared" si="22"/>
+        <v>1.4729900778432443</v>
       </c>
       <c r="AI4">
-        <f t="shared" si="21"/>
-        <v>-4.5266299931505882E-2</v>
+        <f t="shared" si="23"/>
+        <v>-5.0154993908008594E-2</v>
       </c>
       <c r="AJ4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>111.1111111111111</v>
       </c>
     </row>
@@ -1078,16 +1084,18 @@
         <v>327</v>
       </c>
       <c r="H5">
+        <f t="shared" si="0"/>
         <v>319</v>
       </c>
       <c r="I5">
+        <f t="shared" si="1"/>
         <v>347</v>
       </c>
       <c r="J5">
         <v>3</v>
       </c>
       <c r="K5">
-        <v>7.8449192165090262E-2</v>
+        <v>7.8293293133667841E-2</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1096,95 +1104,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.52</v>
       </c>
       <c r="O5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="P5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.08</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="R5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.68</v>
       </c>
       <c r="S5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.9999999999999907E-2</v>
       </c>
       <c r="T5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="U5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="W5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.999999999999999E-2</v>
       </c>
       <c r="X5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.16</v>
       </c>
       <c r="Y5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-1.999999999999999E-2</v>
       </c>
       <c r="Z5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AA5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.38</v>
       </c>
       <c r="AC5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AD5">
-        <f t="shared" si="16"/>
-        <v>0.77505941551660829</v>
+        <f t="shared" si="18"/>
+        <v>0.77432043704672771</v>
       </c>
       <c r="AE5">
-        <f t="shared" si="17"/>
-        <v>-9.1082463915628242E-3</v>
+        <f t="shared" si="19"/>
+        <v>-1.197898344340087E-2</v>
       </c>
       <c r="AF5">
-        <f t="shared" si="18"/>
-        <v>1.5410105846416537</v>
+        <f t="shared" si="20"/>
+        <v>1.5366618906500547</v>
       </c>
       <c r="AG5">
-        <f t="shared" si="19"/>
-        <v>-1.9873915263923791E-2</v>
+        <f t="shared" si="21"/>
+        <v>-1.9381106702179629E-2</v>
       </c>
       <c r="AH5">
-        <f t="shared" si="20"/>
-        <v>1.4268616524459756</v>
+        <f t="shared" si="22"/>
+        <v>1.4228350839352357</v>
       </c>
       <c r="AI5">
-        <f t="shared" si="21"/>
-        <v>-4.4010134829857606E-2</v>
+        <f t="shared" si="23"/>
+        <v>-4.3488916709894854E-2</v>
       </c>
       <c r="AJ5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>115.38461538461539</v>
       </c>
     </row>
@@ -1211,16 +1219,18 @@
         <v>354</v>
       </c>
       <c r="H6">
+        <f t="shared" si="0"/>
         <v>347</v>
       </c>
       <c r="I6">
+        <f t="shared" si="1"/>
         <v>374</v>
       </c>
       <c r="J6">
         <v>3</v>
       </c>
       <c r="K6">
-        <v>7.6539868442493053E-2</v>
+        <v>7.5790507853904607E-2</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1229,95 +1239,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="O6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="P6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.7</v>
       </c>
       <c r="S6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.9999999999999907E-2</v>
       </c>
       <c r="T6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="U6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.9999999999999962E-2</v>
       </c>
       <c r="V6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.16</v>
       </c>
       <c r="W6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1.999999999999999E-2</v>
       </c>
       <c r="X6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="Y6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AA6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="AB6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
       <c r="AC6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AD6">
-        <f t="shared" si="16"/>
-        <v>0.76595116912504546</v>
+        <f t="shared" si="18"/>
+        <v>0.76234145360332684</v>
       </c>
       <c r="AE6">
-        <f t="shared" si="17"/>
-        <v>-1.0765668872360967E-2</v>
+        <f t="shared" si="19"/>
+        <v>-7.4021232587785368E-3</v>
       </c>
       <c r="AF6">
-        <f t="shared" si="18"/>
-        <v>1.52113666937773</v>
+        <f t="shared" si="20"/>
+        <v>1.517280783947875</v>
       </c>
       <c r="AG6">
-        <f t="shared" si="19"/>
-        <v>7.3074113770888349E-2</v>
+        <f t="shared" si="21"/>
+        <v>7.633496121250416E-2</v>
       </c>
       <c r="AH6">
-        <f t="shared" si="20"/>
-        <v>1.382851517616118</v>
+        <f t="shared" si="22"/>
+        <v>1.3793461672253409</v>
       </c>
       <c r="AI6">
-        <f t="shared" si="21"/>
-        <v>6.6431012518989307E-2</v>
+        <f t="shared" si="23"/>
+        <v>6.939541928409465E-2</v>
       </c>
       <c r="AJ6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>107.14285714285714</v>
       </c>
     </row>
@@ -1344,16 +1354,18 @@
         <v>381</v>
       </c>
       <c r="H7">
+        <f t="shared" si="0"/>
         <v>374</v>
       </c>
       <c r="I7">
+        <f t="shared" si="1"/>
         <v>402</v>
       </c>
       <c r="J7">
         <v>3</v>
       </c>
       <c r="K7">
-        <v>7.4317208135828164E-2</v>
+        <v>7.4266814459683791E-2</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1362,95 +1374,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.54</v>
       </c>
       <c r="O7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="P7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.9999999999999831E-2</v>
       </c>
       <c r="R7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.68</v>
       </c>
       <c r="S7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.9999999999999925E-2</v>
       </c>
       <c r="T7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.42</v>
       </c>
       <c r="U7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="V7">
-        <f t="shared" si="8"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="W7">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X7">
         <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
+      <c r="W7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="12"/>
+        <v>0.14000000000000001</v>
+      </c>
       <c r="Y7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.999999999999999E-2</v>
       </c>
       <c r="Z7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="AA7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AB7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
       <c r="AC7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.9999999999999962E-2</v>
       </c>
       <c r="AD7">
-        <f t="shared" si="16"/>
-        <v>0.75518550025268449</v>
+        <f t="shared" si="18"/>
+        <v>0.7549393303445483</v>
       </c>
       <c r="AE7">
-        <f t="shared" si="17"/>
-        <v>8.3839782643249317E-2</v>
+        <f t="shared" si="19"/>
+        <v>8.3737084471282586E-2</v>
       </c>
       <c r="AF7">
-        <f t="shared" si="18"/>
-        <v>1.5942107831486183</v>
+        <f t="shared" si="20"/>
+        <v>1.5936157451603792</v>
       </c>
       <c r="AG7">
-        <f t="shared" si="19"/>
-        <v>-7.6405832107151461E-3</v>
+        <f t="shared" si="21"/>
+        <v>-8.0781522107882253E-3</v>
       </c>
       <c r="AH7">
-        <f t="shared" si="20"/>
-        <v>1.4492825301351073</v>
+        <f t="shared" si="22"/>
+        <v>1.4487415865094355</v>
       </c>
       <c r="AI7">
-        <f t="shared" si="21"/>
-        <v>-8.154959915415616E-2</v>
+        <f t="shared" si="23"/>
+        <v>-8.1898833966684625E-2</v>
       </c>
       <c r="AJ7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>111.1111111111111</v>
       </c>
     </row>
@@ -1477,16 +1489,18 @@
         <v>410</v>
       </c>
       <c r="H8">
+        <f t="shared" si="0"/>
         <v>402</v>
       </c>
       <c r="I8">
+        <f t="shared" si="1"/>
         <v>432</v>
       </c>
       <c r="J8">
         <v>3</v>
       </c>
       <c r="K8">
-        <v>9.2617889275656451E-2</v>
+        <v>9.2536941894450442E-2</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -1495,95 +1509,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="O8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.9999999999999925E-2</v>
       </c>
       <c r="P8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.1599999999999999</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="R8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.72</v>
       </c>
       <c r="S8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="T8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.44</v>
       </c>
       <c r="U8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="V8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="W8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.999999999999999E-2</v>
       </c>
       <c r="X8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.16</v>
       </c>
       <c r="Y8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AA8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.9999999999999962E-2</v>
       </c>
       <c r="AB8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.42</v>
       </c>
       <c r="AC8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AD8">
-        <f t="shared" si="16"/>
-        <v>0.83902528289593381</v>
+        <f t="shared" si="18"/>
+        <v>0.83867641481583088</v>
       </c>
       <c r="AE8">
-        <f t="shared" si="17"/>
-        <v>-9.1480365853964463E-2</v>
+        <f t="shared" si="19"/>
+        <v>-9.1815236682070811E-2</v>
       </c>
       <c r="AF8">
-        <f t="shared" si="18"/>
-        <v>1.5865701999379032</v>
+        <f t="shared" si="20"/>
+        <v>1.585537592949591</v>
       </c>
       <c r="AG8">
-        <f t="shared" si="19"/>
-        <v>-0.23553242822647569</v>
+        <f t="shared" si="21"/>
+        <v>-0.23594980266022403</v>
       </c>
       <c r="AH8">
-        <f t="shared" si="20"/>
-        <v>1.3677329309809512</v>
+        <f t="shared" si="22"/>
+        <v>1.3668427525427509</v>
       </c>
       <c r="AI8">
-        <f t="shared" si="21"/>
-        <v>-0.22278566681872447</v>
+        <f t="shared" si="23"/>
+        <v>-0.2231242861958298</v>
       </c>
       <c r="AJ8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>107.14285714285714</v>
       </c>
     </row>
@@ -1610,16 +1624,18 @@
         <v>440</v>
       </c>
       <c r="H9">
+        <f t="shared" si="0"/>
         <v>432</v>
       </c>
       <c r="I9">
+        <f t="shared" si="1"/>
         <v>461</v>
       </c>
       <c r="J9">
         <v>3</v>
       </c>
       <c r="K9">
-        <v>7.276202478937735E-2</v>
+        <v>7.2623752660221835E-2</v>
       </c>
       <c r="L9">
         <v>2</v>
@@ -1628,95 +1644,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
       <c r="O9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="P9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.18</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.76</v>
       </c>
       <c r="S9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="T9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.42</v>
       </c>
       <c r="U9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="V9">
-        <f t="shared" si="8"/>
-        <v>0.16</v>
-      </c>
-      <c r="W9">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X9">
         <f t="shared" si="10"/>
         <v>0.16</v>
       </c>
+      <c r="W9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="12"/>
+        <v>0.16</v>
+      </c>
       <c r="Y9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.32</v>
       </c>
       <c r="AA9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.44</v>
       </c>
       <c r="AC9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="AD9">
-        <f t="shared" si="16"/>
-        <v>0.74754491704196935</v>
+        <f t="shared" si="18"/>
+        <v>0.74686117813376007</v>
       </c>
       <c r="AE9">
-        <f t="shared" si="17"/>
-        <v>-0.14405206237251111</v>
+        <f t="shared" si="19"/>
+        <v>-0.14413456597815333</v>
       </c>
       <c r="AF9">
-        <f t="shared" si="18"/>
-        <v>1.3510377717114275</v>
+        <f t="shared" si="20"/>
+        <v>1.3495877902893669</v>
       </c>
       <c r="AG9">
-        <f t="shared" si="19"/>
-        <v>-0.15508807357631493</v>
+        <f t="shared" si="21"/>
+        <v>-0.1518134761933656</v>
       </c>
       <c r="AH9">
-        <f t="shared" si="20"/>
-        <v>1.1449472641622267</v>
+        <f t="shared" si="22"/>
+        <v>1.1437184663469211</v>
       </c>
       <c r="AI9">
-        <f t="shared" si="21"/>
-        <v>-0.13143057082738552</v>
+        <f t="shared" si="23"/>
+        <v>-0.12865548829946238</v>
       </c>
       <c r="AJ9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
     </row>
@@ -1743,16 +1759,18 @@
         <v>469</v>
       </c>
       <c r="H10">
+        <f t="shared" si="0"/>
         <v>461</v>
       </c>
       <c r="I10">
+        <f t="shared" si="1"/>
         <v>491</v>
       </c>
       <c r="J10">
         <v>3</v>
       </c>
       <c r="K10">
-        <v>4.6788472273673887E-2</v>
+        <v>4.6666817600934732E-2</v>
       </c>
       <c r="L10">
         <v>2</v>
@@ -1761,95 +1779,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.57999999999999996</v>
       </c>
       <c r="O10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="P10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.18</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-4.0000000000000036E-2</v>
       </c>
       <c r="R10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.74</v>
       </c>
       <c r="S10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.44</v>
       </c>
       <c r="U10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-3.999999999999998E-2</v>
       </c>
       <c r="V10">
-        <f t="shared" si="8"/>
-        <v>0.16</v>
-      </c>
-      <c r="W10">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X10">
         <f t="shared" si="10"/>
         <v>0.16</v>
       </c>
+      <c r="W10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="12"/>
+        <v>0.16</v>
+      </c>
       <c r="Y10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-1.999999999999999E-2</v>
       </c>
       <c r="Z10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.32</v>
       </c>
       <c r="AA10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-1.9999999999999962E-2</v>
       </c>
       <c r="AB10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.42</v>
       </c>
       <c r="AC10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AD10">
-        <f t="shared" si="16"/>
-        <v>0.60349285466945823</v>
+        <f t="shared" si="18"/>
+        <v>0.60272661215560674</v>
       </c>
       <c r="AE10">
-        <f t="shared" si="17"/>
-        <v>-1.1036011203803819E-2</v>
+        <f t="shared" si="19"/>
+        <v>-7.6789102152121647E-3</v>
       </c>
       <c r="AF10">
-        <f t="shared" si="18"/>
-        <v>1.1959496981351125</v>
+        <f t="shared" si="20"/>
+        <v>1.1977743140960013</v>
       </c>
       <c r="AG10">
-        <f t="shared" si="19"/>
-        <v>2.3122435983914613E-2</v>
+        <f t="shared" si="21"/>
+        <v>2.5703320612521452E-2</v>
       </c>
       <c r="AH10">
-        <f t="shared" si="20"/>
-        <v>1.0135166933348412</v>
+        <f t="shared" si="22"/>
+        <v>1.0150629780474587</v>
       </c>
       <c r="AI10">
-        <f t="shared" si="21"/>
-        <v>5.5844827822200349E-2</v>
+        <f t="shared" si="23"/>
+        <v>5.8163017310894682E-2</v>
       </c>
       <c r="AJ10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>103.44827586206897</v>
       </c>
     </row>
@@ -1876,16 +1894,18 @@
         <v>498</v>
       </c>
       <c r="H11">
+        <f t="shared" si="0"/>
         <v>491</v>
       </c>
       <c r="I11">
+        <f t="shared" si="1"/>
         <v>518</v>
       </c>
       <c r="J11">
         <v>3</v>
       </c>
       <c r="K11">
-        <v>4.505270160804143E-2</v>
+        <v>4.5457037407677203E-2</v>
       </c>
       <c r="L11">
         <v>2</v>
@@ -1894,95 +1914,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
       <c r="O11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.9999999999999942E-2</v>
       </c>
       <c r="P11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.1399999999999999</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-5.9999999999999831E-2</v>
       </c>
       <c r="R11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.74</v>
       </c>
       <c r="S11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-5.9999999999999942E-2</v>
       </c>
       <c r="T11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="U11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.16</v>
       </c>
       <c r="W11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1.999999999999999E-2</v>
       </c>
       <c r="X11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="Y11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AA11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="AB11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.44</v>
       </c>
       <c r="AC11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-3.999999999999998E-2</v>
       </c>
       <c r="AD11">
-        <f t="shared" si="16"/>
-        <v>0.59245684346565441</v>
+        <f t="shared" si="18"/>
+        <v>0.59504770194039458</v>
       </c>
       <c r="AE11">
-        <f t="shared" si="17"/>
-        <v>3.4158447187718322E-2</v>
+        <f t="shared" si="19"/>
+        <v>3.3382230827733617E-2</v>
       </c>
       <c r="AF11">
-        <f t="shared" si="18"/>
-        <v>1.2190721341190272</v>
+        <f t="shared" si="20"/>
+        <v>1.2234776347085228</v>
       </c>
       <c r="AG11">
-        <f t="shared" si="19"/>
-        <v>0.27080034880371628</v>
+        <f t="shared" si="21"/>
+        <v>0.26845471544710775</v>
       </c>
       <c r="AH11">
-        <f t="shared" si="20"/>
-        <v>1.0693615211570415</v>
+        <f t="shared" si="22"/>
+        <v>1.0732259953583534</v>
       </c>
       <c r="AI11">
-        <f t="shared" si="21"/>
-        <v>0.31015003710475786</v>
+        <f t="shared" si="23"/>
+        <v>0.30819284737834152</v>
       </c>
       <c r="AJ11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
     </row>
@@ -2009,16 +2029,18 @@
         <v>525</v>
       </c>
       <c r="H12">
+        <f t="shared" si="0"/>
         <v>518</v>
       </c>
       <c r="I12">
+        <f t="shared" si="1"/>
         <v>545</v>
       </c>
       <c r="J12">
         <v>3</v>
       </c>
       <c r="K12">
-        <v>5.0539926109655853E-2</v>
+        <v>5.0840951129829517E-2</v>
       </c>
       <c r="L12">
         <v>2</v>
@@ -2027,95 +2049,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.54</v>
       </c>
       <c r="O12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.08</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="R12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.68</v>
       </c>
       <c r="S12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.9999999999999907E-2</v>
       </c>
       <c r="T12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="U12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V12">
-        <f t="shared" si="8"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="W12">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X12">
         <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
+      <c r="W12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="12"/>
+        <v>0.14000000000000001</v>
+      </c>
       <c r="Y12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.999999999999999E-2</v>
       </c>
       <c r="Z12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="AA12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AB12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
       <c r="AC12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AD12">
-        <f t="shared" si="16"/>
-        <v>0.62661529065337274</v>
+        <f t="shared" si="18"/>
+        <v>0.6284299327681282</v>
       </c>
       <c r="AE12">
-        <f t="shared" si="17"/>
-        <v>0.23664190161599796</v>
+        <f t="shared" si="19"/>
+        <v>0.23507248461937424</v>
       </c>
       <c r="AF12">
-        <f t="shared" si="18"/>
-        <v>1.4898724829227434</v>
+        <f t="shared" si="20"/>
+        <v>1.4919323501556305</v>
       </c>
       <c r="AG12">
-        <f t="shared" si="19"/>
-        <v>0.1540972946911201</v>
+        <f t="shared" si="21"/>
+        <v>0.15577452608144382</v>
       </c>
       <c r="AH12">
-        <f t="shared" si="20"/>
-        <v>1.3795115582617994</v>
+        <f t="shared" si="22"/>
+        <v>1.3814188427366949</v>
       </c>
       <c r="AI12">
-        <f t="shared" si="21"/>
-        <v>0.11500642138716732</v>
+        <f t="shared" si="23"/>
+        <v>0.116496499297009</v>
       </c>
       <c r="AJ12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>111.1111111111111</v>
       </c>
     </row>
@@ -2142,16 +2164,18 @@
         <v>553</v>
       </c>
       <c r="H13">
+        <f t="shared" si="0"/>
         <v>545</v>
       </c>
       <c r="I13">
+        <f t="shared" si="1"/>
         <v>573</v>
       </c>
       <c r="J13">
         <v>3</v>
       </c>
       <c r="K13">
-        <v>9.8341140571064425E-2</v>
+        <v>9.8400081407862897E-2</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -2160,95 +2184,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.54</v>
       </c>
       <c r="O13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="P13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="R13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.7</v>
       </c>
       <c r="S13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="U13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="V13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="W13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.999999999999999E-2</v>
       </c>
       <c r="X13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.16</v>
       </c>
       <c r="Y13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-1.999999999999999E-2</v>
       </c>
       <c r="Z13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AA13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
       <c r="AC13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AD13">
-        <f t="shared" si="16"/>
-        <v>0.8632571922693707</v>
+        <f t="shared" si="18"/>
+        <v>0.86350241738750244</v>
       </c>
       <c r="AE13">
-        <f t="shared" si="17"/>
-        <v>-8.2544606924877861E-2</v>
+        <f t="shared" si="19"/>
+        <v>-7.9297958537930424E-2</v>
       </c>
       <c r="AF13">
-        <f t="shared" si="18"/>
-        <v>1.6439697776138635</v>
+        <f t="shared" si="20"/>
+        <v>1.6477068762370743</v>
       </c>
       <c r="AG13">
-        <f t="shared" si="19"/>
-        <v>-4.9290806633513595E-2</v>
+        <f t="shared" si="21"/>
+        <v>-4.5882732524106906E-2</v>
       </c>
       <c r="AH13">
-        <f t="shared" si="20"/>
-        <v>1.4945179796489667</v>
+        <f t="shared" si="22"/>
+        <v>1.4979153420337039</v>
       </c>
       <c r="AI13">
-        <f t="shared" si="21"/>
-        <v>-1.7963376889383431E-2</v>
+        <f t="shared" si="23"/>
+        <v>-1.4744838595771137E-2</v>
       </c>
       <c r="AJ13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>111.1111111111111</v>
       </c>
     </row>
@@ -2275,16 +2299,18 @@
         <v>580</v>
       </c>
       <c r="H14">
+        <f t="shared" si="0"/>
         <v>573</v>
       </c>
       <c r="I14">
+        <f t="shared" si="1"/>
         <v>599</v>
       </c>
       <c r="J14">
         <v>3</v>
       </c>
       <c r="K14">
-        <v>7.9647620798735275E-2</v>
+        <v>8.0393012209998227E-2</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -2293,95 +2319,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="O14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-4.0000000000000036E-2</v>
       </c>
       <c r="P14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.08</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="R14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.7</v>
       </c>
       <c r="S14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-3.9999999999999925E-2</v>
       </c>
       <c r="T14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.38</v>
       </c>
       <c r="U14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="V14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.16</v>
       </c>
       <c r="W14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1.999999999999999E-2</v>
       </c>
       <c r="X14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AA14">
-        <f t="shared" si="13"/>
-        <v>-2.0000000000000018E-2</v>
-      </c>
-      <c r="AB14">
-        <f t="shared" si="14"/>
-        <v>0.4</v>
-      </c>
-      <c r="AC14">
         <f t="shared" si="15"/>
         <v>-2.0000000000000018E-2</v>
       </c>
+      <c r="AB14">
+        <f t="shared" si="16"/>
+        <v>0.4</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="17"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
       <c r="AD14">
-        <f t="shared" si="16"/>
-        <v>0.78071258534449284</v>
+        <f t="shared" si="18"/>
+        <v>0.78420445884957202</v>
       </c>
       <c r="AE14">
-        <f t="shared" si="17"/>
-        <v>3.3253800291364155E-2</v>
+        <f t="shared" si="19"/>
+        <v>3.3415226013823518E-2</v>
       </c>
       <c r="AF14">
-        <f t="shared" si="18"/>
-        <v>1.5946789709803499</v>
+        <f t="shared" si="20"/>
+        <v>1.6018241437129674</v>
       </c>
       <c r="AG14">
-        <f t="shared" si="19"/>
-        <v>4.6663770099905744E-2</v>
+        <f t="shared" si="21"/>
+        <v>4.6983303384134256E-2</v>
       </c>
       <c r="AH14">
-        <f t="shared" si="20"/>
-        <v>1.4765546027595833</v>
+        <f t="shared" si="22"/>
+        <v>1.4831705034379328</v>
       </c>
       <c r="AI14">
-        <f t="shared" si="21"/>
-        <v>7.1881945429337124E-2</v>
+        <f t="shared" si="23"/>
+        <v>7.230822023857808E-2</v>
       </c>
       <c r="AJ14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>107.14285714285714</v>
       </c>
     </row>
@@ -2408,16 +2434,18 @@
         <v>606</v>
       </c>
       <c r="H15">
+        <f t="shared" si="0"/>
         <v>599</v>
       </c>
       <c r="I15">
+        <f t="shared" si="1"/>
         <v>626</v>
       </c>
       <c r="J15">
         <v>3</v>
       </c>
       <c r="K15">
-        <v>8.6906931986986041E-2</v>
+        <v>8.7726531293572746E-2</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -2426,95 +2454,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.52</v>
       </c>
       <c r="O15">
-        <f t="shared" si="1"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="2"/>
-        <v>1.06</v>
-      </c>
-      <c r="Q15">
         <f t="shared" si="3"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="R15">
+      <c r="P15">
         <f t="shared" si="4"/>
-        <v>0.66</v>
-      </c>
-      <c r="S15">
+        <v>1.06</v>
+      </c>
+      <c r="Q15">
         <f t="shared" si="5"/>
         <v>2.0000000000000018E-2</v>
       </c>
+      <c r="R15">
+        <f t="shared" si="6"/>
+        <v>0.66</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="7"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
       <c r="T15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="U15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V15">
-        <f t="shared" si="8"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="W15">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X15">
         <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
+      <c r="W15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="12"/>
+        <v>0.14000000000000001</v>
+      </c>
       <c r="Y15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="AA15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.38</v>
       </c>
       <c r="AC15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AD15">
-        <f t="shared" si="16"/>
-        <v>0.81396638563585699</v>
+        <f t="shared" si="18"/>
+        <v>0.81761968486339553</v>
       </c>
       <c r="AE15">
-        <f t="shared" si="17"/>
-        <v>1.3409969808541589E-2</v>
+        <f t="shared" si="19"/>
+        <v>1.3568077370310516E-2</v>
       </c>
       <c r="AF15">
-        <f t="shared" si="18"/>
-        <v>1.6413427410802557</v>
+        <f t="shared" si="20"/>
+        <v>1.6488074470971017</v>
       </c>
       <c r="AG15">
-        <f t="shared" si="19"/>
-        <v>5.5310457837445703E-2</v>
+        <f t="shared" si="21"/>
+        <v>5.2484461342563904E-2</v>
       </c>
       <c r="AH15">
-        <f t="shared" si="20"/>
-        <v>1.5484365481889204</v>
+        <f t="shared" si="22"/>
+        <v>1.5554787236765109</v>
       </c>
       <c r="AI15">
-        <f t="shared" si="21"/>
-        <v>2.2538635994136413E-2</v>
+        <f t="shared" si="23"/>
+        <v>1.9791561915772027E-2</v>
       </c>
       <c r="AJ15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>115.38461538461539</v>
       </c>
     </row>
@@ -2541,16 +2569,18 @@
         <v>633</v>
       </c>
       <c r="H16">
+        <f t="shared" si="0"/>
         <v>626</v>
       </c>
       <c r="I16">
+        <f t="shared" si="1"/>
         <v>653</v>
       </c>
       <c r="J16">
         <v>3</v>
       </c>
       <c r="K16">
-        <v>8.9937065505220987E-2</v>
+        <v>9.080920611004939E-2</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -2559,95 +2589,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.54</v>
       </c>
       <c r="O16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.08</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="R16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.68</v>
       </c>
       <c r="S16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="U16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.9999999999999962E-2</v>
       </c>
       <c r="V16">
-        <f t="shared" si="8"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="W16">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X16">
         <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
+      <c r="W16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="12"/>
+        <v>0.14000000000000001</v>
+      </c>
       <c r="Y16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="AA16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
       <c r="AC16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AD16">
-        <f t="shared" si="16"/>
-        <v>0.82737635544439858</v>
+        <f t="shared" si="18"/>
+        <v>0.83118776223370605</v>
       </c>
       <c r="AE16">
-        <f t="shared" si="17"/>
-        <v>4.1900488028904226E-2</v>
+        <f t="shared" si="19"/>
+        <v>3.8916383972253499E-2</v>
       </c>
       <c r="AF16">
-        <f t="shared" si="18"/>
-        <v>1.6966531989177014</v>
+        <f t="shared" si="20"/>
+        <v>1.7012919084396656</v>
       </c>
       <c r="AG16">
-        <f t="shared" si="19"/>
-        <v>3.0085722492812383E-2</v>
+        <f t="shared" si="21"/>
+        <v>3.0755684415208151E-2</v>
       </c>
       <c r="AH16">
-        <f t="shared" si="20"/>
-        <v>1.5709751841830568</v>
+        <f t="shared" si="22"/>
+        <v>1.5752702855922829</v>
       </c>
       <c r="AI16">
-        <f t="shared" si="21"/>
-        <v>-1.2125283553170441E-3</v>
+        <f t="shared" si="23"/>
+        <v>-6.8156481512504641E-4</v>
       </c>
       <c r="AJ16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>111.1111111111111</v>
       </c>
     </row>
@@ -2674,113 +2704,115 @@
         <v>660</v>
       </c>
       <c r="H17">
+        <f t="shared" si="0"/>
         <v>653</v>
       </c>
       <c r="I17">
+        <f t="shared" si="1"/>
         <v>681</v>
       </c>
       <c r="J17">
         <v>3</v>
       </c>
       <c r="K17">
-        <v>9.9793953650616551E-2</v>
+        <v>9.9994593005597987E-2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0.99639999999999995</v>
       </c>
       <c r="N17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.54</v>
       </c>
       <c r="O17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="P17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.68</v>
       </c>
       <c r="S17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.9999999999999907E-2</v>
       </c>
       <c r="T17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.42</v>
       </c>
       <c r="U17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1.9999999999999962E-2</v>
       </c>
       <c r="V17">
-        <f t="shared" si="8"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="W17">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X17">
         <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
+      <c r="W17">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="12"/>
+        <v>0.14000000000000001</v>
+      </c>
       <c r="Y17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="AA17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
       <c r="AC17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.9999999999999962E-2</v>
       </c>
       <c r="AD17">
-        <f t="shared" si="16"/>
-        <v>0.86927684347330281</v>
+        <f t="shared" si="18"/>
+        <v>0.87010414620595955</v>
       </c>
       <c r="AE17">
-        <f t="shared" si="17"/>
-        <v>-1.1814765536091731E-2</v>
+        <f t="shared" si="19"/>
+        <v>-8.1606995570452368E-3</v>
       </c>
       <c r="AF17">
-        <f t="shared" si="18"/>
-        <v>1.7267389214105138</v>
+        <f t="shared" si="20"/>
+        <v>1.7320475928548738</v>
       </c>
       <c r="AG17">
-        <f t="shared" si="19"/>
-        <v>-0.19158309212615721</v>
+        <f t="shared" si="21"/>
+        <v>-0.19228975556711525</v>
       </c>
       <c r="AH17">
-        <f t="shared" si="20"/>
-        <v>1.5697626558277398</v>
+        <f t="shared" si="22"/>
+        <v>1.5745887207771578</v>
       </c>
       <c r="AI17">
-        <f t="shared" si="21"/>
-        <v>-0.17416644738741582</v>
+        <f t="shared" si="23"/>
+        <v>-0.17480886869737744</v>
       </c>
       <c r="AJ17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>111.1111111111111</v>
       </c>
     </row>
@@ -2807,16 +2839,18 @@
         <v>688</v>
       </c>
       <c r="H18">
+        <f t="shared" si="0"/>
         <v>681</v>
       </c>
       <c r="I18">
+        <f t="shared" si="1"/>
         <v>708</v>
       </c>
       <c r="J18">
         <v>3</v>
       </c>
       <c r="K18">
-        <v>9.6954250538199477E-2</v>
+        <v>9.8025727385992231E-2</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -2825,95 +2859,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="O18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="P18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.9999999999999813E-2</v>
       </c>
       <c r="R18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.7</v>
       </c>
       <c r="S18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="T18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="U18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.9999999999999962E-2</v>
       </c>
       <c r="V18">
-        <f t="shared" si="8"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="W18">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X18">
         <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
+      <c r="W18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="12"/>
+        <v>0.14000000000000001</v>
+      </c>
       <c r="Y18">
-        <f t="shared" si="11"/>
-        <v>3.999999999999998E-2</v>
-      </c>
-      <c r="Z18">
-        <f t="shared" si="12"/>
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="AA18">
         <f t="shared" si="13"/>
         <v>3.999999999999998E-2</v>
       </c>
+      <c r="Z18">
+        <f t="shared" si="14"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="15"/>
+        <v>3.999999999999998E-2</v>
+      </c>
       <c r="AB18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.42</v>
       </c>
       <c r="AC18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-1.9999999999999962E-2</v>
       </c>
       <c r="AD18">
-        <f t="shared" si="16"/>
-        <v>0.85746207793721108</v>
+        <f t="shared" si="18"/>
+        <v>0.86194344664891431</v>
       </c>
       <c r="AE18">
-        <f t="shared" si="17"/>
-        <v>-0.17976832659006559</v>
+        <f t="shared" si="19"/>
+        <v>-0.18412905601007001</v>
       </c>
       <c r="AF18">
-        <f t="shared" si="18"/>
-        <v>1.5351558292843566</v>
+        <f t="shared" si="20"/>
+        <v>1.5397578372877585</v>
       </c>
       <c r="AG18">
-        <f t="shared" si="19"/>
-        <v>-0.17223346940087603</v>
+        <f t="shared" si="21"/>
+        <v>-0.17854947336409088</v>
       </c>
       <c r="AH18">
-        <f t="shared" si="20"/>
-        <v>1.3955962084403239</v>
+        <f t="shared" si="22"/>
+        <v>1.3997798520797804</v>
       </c>
       <c r="AI18">
-        <f t="shared" si="21"/>
-        <v>-0.20005027871797254</v>
+        <f t="shared" si="23"/>
+        <v>-0.20573742758533498</v>
       </c>
       <c r="AJ18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>107.14285714285714</v>
       </c>
     </row>
@@ -2940,16 +2974,18 @@
         <v>717</v>
       </c>
       <c r="H19">
+        <f t="shared" si="0"/>
         <v>708</v>
       </c>
       <c r="I19">
+        <f t="shared" si="1"/>
         <v>738</v>
       </c>
       <c r="J19">
         <v>2</v>
       </c>
       <c r="K19">
-        <v>5.9385723243098973E-2</v>
+        <v>5.940753847177456E-2</v>
       </c>
       <c r="L19">
         <v>2</v>
@@ -2958,95 +2994,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.54</v>
       </c>
       <c r="O19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.9999999999999942E-2</v>
       </c>
       <c r="P19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.1399999999999999</v>
       </c>
       <c r="Q19" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.1000000000000005</v>
       </c>
       <c r="R19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.72</v>
       </c>
       <c r="S19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.0000000000000053E-2</v>
       </c>
       <c r="T19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.42</v>
       </c>
       <c r="U19" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.04</v>
       </c>
       <c r="V19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="W19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3.999999999999998E-2</v>
       </c>
       <c r="X19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.18</v>
       </c>
       <c r="Y19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.32</v>
       </c>
       <c r="AA19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>3.999999999999998E-2</v>
       </c>
       <c r="AB19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
       <c r="AC19">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.9999999999999962E-2</v>
       </c>
       <c r="AD19">
-        <f t="shared" si="16"/>
-        <v>0.67769375134714549</v>
+        <f t="shared" si="18"/>
+        <v>0.6778143906388443</v>
       </c>
       <c r="AE19">
-        <f t="shared" si="17"/>
-        <v>7.5348571891895588E-3</v>
+        <f t="shared" si="19"/>
+        <v>5.5795826459791309E-3</v>
       </c>
       <c r="AF19">
-        <f t="shared" si="18"/>
-        <v>1.3629223598834805</v>
+        <f t="shared" si="20"/>
+        <v>1.3612083639236676</v>
       </c>
       <c r="AG19" s="3">
-        <f t="shared" si="19"/>
-        <v>-0.67769375134714549</v>
+        <f t="shared" si="21"/>
+        <v>-0.67781439063884419</v>
       </c>
       <c r="AH19">
-        <f t="shared" si="20"/>
-        <v>1.1955459297223514</v>
+        <f t="shared" si="22"/>
+        <v>1.1940424244944454</v>
       </c>
       <c r="AI19" s="3">
-        <f t="shared" si="21"/>
-        <v>-1.0339354088411403</v>
+        <f t="shared" si="23"/>
+        <v>-1.0328646006065154</v>
       </c>
       <c r="AJ19">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>111.1111111111111</v>
       </c>
     </row>
@@ -3073,16 +3109,18 @@
         <v>747</v>
       </c>
       <c r="H20">
+        <f t="shared" si="0"/>
         <v>738</v>
       </c>
       <c r="I20" s="3">
+        <f t="shared" si="1"/>
         <v>920</v>
       </c>
       <c r="J20">
         <v>1</v>
       </c>
       <c r="K20">
-        <v>6.0756692691686313E-2</v>
+        <v>6.0421298682766238E-2</v>
       </c>
       <c r="L20">
         <v>2</v>
@@ -3091,95 +3129,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
       <c r="O20" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.04</v>
       </c>
       <c r="P20" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.24</v>
       </c>
       <c r="Q20" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.78</v>
       </c>
       <c r="S20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="T20" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.46</v>
       </c>
       <c r="U20" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.10000000000000009</v>
       </c>
       <c r="V20">
-        <f t="shared" si="8"/>
-        <v>0.18</v>
-      </c>
-      <c r="W20">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X20">
         <f t="shared" si="10"/>
         <v>0.18</v>
       </c>
+      <c r="W20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="12"/>
+        <v>0.18</v>
+      </c>
       <c r="Y20" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-2.94</v>
       </c>
       <c r="Z20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.36</v>
       </c>
       <c r="AA20" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-2.9399999999999995</v>
       </c>
       <c r="AB20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.42</v>
       </c>
       <c r="AC20" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.04</v>
       </c>
       <c r="AD20">
-        <f t="shared" si="16"/>
-        <v>0.68522860853633505</v>
+        <f t="shared" si="18"/>
+        <v>0.68339397328482343</v>
       </c>
       <c r="AE20" s="3">
-        <f t="shared" si="17"/>
-        <v>-0.68522860853633505</v>
+        <f t="shared" si="19"/>
+        <v>-0.68339397328482343</v>
       </c>
       <c r="AF20" s="3">
-        <f t="shared" si="18"/>
-        <v>0.68522860853633505</v>
+        <f t="shared" si="20"/>
+        <v>0.68339397328482343</v>
       </c>
       <c r="AG20" s="3">
-        <f t="shared" si="19"/>
-        <v>3.2492486984259661E-2</v>
+        <f t="shared" si="21"/>
+        <v>3.3631958985155919E-2</v>
       </c>
       <c r="AH20" s="3">
-        <f t="shared" si="20"/>
-        <v>0.16161052088121108</v>
+        <f t="shared" si="22"/>
+        <v>0.16117782388793003</v>
       </c>
       <c r="AI20" s="3">
-        <f t="shared" si="21"/>
-        <v>7.6633224019480306E-3</v>
+        <f t="shared" si="23"/>
+        <v>7.9320657983858456E-3</v>
       </c>
       <c r="AJ20">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
     </row>
@@ -3206,9 +3244,11 @@
         <v>782</v>
       </c>
       <c r="H21" s="3">
+        <f t="shared" si="0"/>
         <v>920</v>
       </c>
       <c r="I21" s="3">
+        <f t="shared" si="1"/>
         <v>950</v>
       </c>
       <c r="J21">
@@ -3221,95 +3261,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N21" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.64</v>
       </c>
       <c r="O21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-3.04</v>
       </c>
       <c r="P21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.24</v>
       </c>
       <c r="Q21" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-3.1000000000000005</v>
       </c>
       <c r="R21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.88</v>
       </c>
       <c r="S21" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.14000000000000001</v>
       </c>
       <c r="T21" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.36</v>
       </c>
       <c r="U21" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-2.96</v>
       </c>
       <c r="V21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.18</v>
       </c>
       <c r="W21" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1.999999999999999E-2</v>
       </c>
       <c r="X21" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-2.76</v>
       </c>
       <c r="Y21" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.9</v>
       </c>
       <c r="Z21" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-2.5799999999999996</v>
       </c>
       <c r="AA21" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.88</v>
       </c>
       <c r="AB21" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3.46</v>
       </c>
       <c r="AC21" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-3.02</v>
       </c>
       <c r="AD21" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AE21" s="3">
-        <f t="shared" si="17"/>
-        <v>0.71772109552059471</v>
+        <f t="shared" si="19"/>
+        <v>0.71702593226997935</v>
       </c>
       <c r="AF21" s="3">
-        <f t="shared" si="18"/>
-        <v>0.71772109552059471</v>
+        <f t="shared" si="20"/>
+        <v>0.71702593226997935</v>
       </c>
       <c r="AG21" s="3">
-        <f t="shared" si="19"/>
-        <v>0.77681386777421613</v>
+        <f t="shared" si="21"/>
+        <v>0.77948684101974719</v>
       </c>
       <c r="AH21" s="3">
-        <f t="shared" si="20"/>
-        <v>0.16927384328315911</v>
+        <f t="shared" si="22"/>
+        <v>0.16910988968631588</v>
       </c>
       <c r="AI21" s="3">
-        <f t="shared" si="21"/>
-        <v>1.1417217385543943</v>
+        <f t="shared" si="23"/>
+        <v>1.1436206131994093</v>
       </c>
       <c r="AJ21" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>16.483516483516482</v>
       </c>
     </row>
@@ -3336,16 +3376,18 @@
         <v>957</v>
       </c>
       <c r="H22" s="3">
+        <f t="shared" si="0"/>
         <v>950</v>
       </c>
       <c r="I22">
+        <f t="shared" si="1"/>
         <v>977</v>
       </c>
       <c r="J22">
         <v>3</v>
       </c>
       <c r="K22">
-        <v>6.6866747630199438E-2</v>
+        <v>6.6732633081545797E-2</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -3354,95 +3396,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
       <c r="O22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.9999999999999942E-2</v>
       </c>
       <c r="P22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.1399999999999999</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-7.9999999999999849E-2</v>
       </c>
       <c r="R22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.74</v>
       </c>
       <c r="S22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-5.9999999999999942E-2</v>
       </c>
       <c r="T22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="U22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="V22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.16</v>
       </c>
       <c r="W22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1.999999999999999E-2</v>
       </c>
       <c r="X22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="Y22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AA22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="AB22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.44</v>
       </c>
       <c r="AC22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-3.999999999999998E-2</v>
       </c>
       <c r="AD22">
-        <f t="shared" si="16"/>
-        <v>0.71772109552059471</v>
+        <f t="shared" si="18"/>
+        <v>0.71702593226997935</v>
       </c>
       <c r="AE22">
-        <f t="shared" si="17"/>
-        <v>5.9092772253621528E-2</v>
+        <f t="shared" si="19"/>
+        <v>6.246090874976773E-2</v>
       </c>
       <c r="AF22">
-        <f t="shared" si="18"/>
-        <v>1.4945349632948108</v>
+        <f t="shared" si="20"/>
+        <v>1.4965127732897265</v>
       </c>
       <c r="AG22">
-        <f t="shared" si="19"/>
-        <v>0.15304574118408532</v>
+        <f t="shared" si="21"/>
+        <v>0.15198141775005913</v>
       </c>
       <c r="AH22">
-        <f t="shared" si="20"/>
-        <v>1.3109955818375534</v>
+        <f t="shared" si="22"/>
+        <v>1.3127305028857252</v>
       </c>
       <c r="AI22">
-        <f t="shared" si="21"/>
-        <v>0.24332583748215986</v>
+        <f t="shared" si="23"/>
+        <v>0.24245269620841214</v>
       </c>
       <c r="AJ22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
     </row>
@@ -3469,16 +3511,18 @@
         <v>984</v>
       </c>
       <c r="H23">
+        <f t="shared" si="0"/>
         <v>977</v>
       </c>
       <c r="I23">
+        <f t="shared" si="1"/>
         <v>1003</v>
       </c>
       <c r="J23">
         <v>3</v>
       </c>
       <c r="K23">
-        <v>7.8820023263140512E-2</v>
+        <v>7.9386899674130124E-2</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -3487,95 +3531,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.54</v>
       </c>
       <c r="O23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="P23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.06</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.68</v>
       </c>
       <c r="S23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="T23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.38</v>
       </c>
       <c r="U23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="V23">
-        <f t="shared" si="8"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="W23">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X23">
         <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
+      <c r="W23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="12"/>
+        <v>0.14000000000000001</v>
+      </c>
       <c r="Y23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="AA23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
       <c r="AC23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="AD23">
-        <f t="shared" si="16"/>
-        <v>0.77681386777421624</v>
+        <f t="shared" si="18"/>
+        <v>0.77948684101974708</v>
       </c>
       <c r="AE23">
-        <f t="shared" si="17"/>
-        <v>9.3952968930463787E-2</v>
+        <f t="shared" si="19"/>
+        <v>8.9520509000291515E-2</v>
       </c>
       <c r="AF23">
-        <f t="shared" si="18"/>
-        <v>1.6475807044788962</v>
+        <f t="shared" si="20"/>
+        <v>1.6484941910397857</v>
       </c>
       <c r="AG23">
-        <f t="shared" si="19"/>
-        <v>0.1164561635122916</v>
+        <f t="shared" si="21"/>
+        <v>0.1124027747439853</v>
       </c>
       <c r="AH23">
-        <f t="shared" si="20"/>
-        <v>1.5543214193197132</v>
+        <f t="shared" si="22"/>
+        <v>1.5551831990941374</v>
       </c>
       <c r="AI23">
-        <f t="shared" si="21"/>
-        <v>0.10986430520027501</v>
+        <f t="shared" si="23"/>
+        <v>0.10604035353206154</v>
       </c>
       <c r="AJ23">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>111.1111111111111</v>
       </c>
     </row>
@@ -3602,16 +3646,18 @@
         <v>1010</v>
       </c>
       <c r="H24">
+        <f t="shared" si="0"/>
         <v>1003</v>
       </c>
       <c r="I24">
+        <f t="shared" si="1"/>
         <v>1030</v>
       </c>
       <c r="J24">
         <v>3</v>
       </c>
       <c r="K24">
-        <v>0.1001554803381885</v>
+        <v>9.9728646379964078E-2</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -3620,95 +3666,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.52</v>
       </c>
       <c r="O24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="P24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.06</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.66</v>
       </c>
       <c r="S24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="T24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="U24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="V24">
-        <f t="shared" si="8"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="W24">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X24">
         <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
+      <c r="W24">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="12"/>
+        <v>0.14000000000000001</v>
+      </c>
       <c r="Y24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="AA24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.38</v>
       </c>
       <c r="AC24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AD24">
-        <f t="shared" si="16"/>
-        <v>0.87076683670468003</v>
+        <f t="shared" si="18"/>
+        <v>0.86900735002003859</v>
       </c>
       <c r="AE24">
-        <f t="shared" si="17"/>
-        <v>2.2503194581827701E-2</v>
+        <f t="shared" si="19"/>
+        <v>2.2882265743693675E-2</v>
       </c>
       <c r="AF24">
-        <f t="shared" si="18"/>
-        <v>1.7640368679911878</v>
+        <f t="shared" si="20"/>
+        <v>1.760896965783771</v>
       </c>
       <c r="AG24">
-        <f t="shared" si="19"/>
-        <v>1.1982757451089121E-2</v>
+        <f t="shared" si="21"/>
+        <v>1.6091545998896173E-2</v>
       </c>
       <c r="AH24">
-        <f t="shared" si="20"/>
-        <v>1.6641857245199883</v>
+        <f t="shared" si="22"/>
+        <v>1.6612235526261989</v>
       </c>
       <c r="AI24">
-        <f t="shared" si="21"/>
-        <v>1.1304488161404835E-2</v>
+        <f t="shared" si="23"/>
+        <v>1.5180703772543547E-2</v>
       </c>
       <c r="AJ24">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>115.38461538461539</v>
       </c>
     </row>
@@ -3735,16 +3781,18 @@
         <v>1037</v>
       </c>
       <c r="H25">
+        <f t="shared" si="0"/>
         <v>1030</v>
       </c>
       <c r="I25">
+        <f t="shared" si="1"/>
         <v>1056</v>
       </c>
       <c r="J25">
         <v>3</v>
       </c>
       <c r="K25">
-        <v>0.1057091878764268</v>
+        <v>0.1053634192003083</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -3753,95 +3801,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.54</v>
       </c>
       <c r="O25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="P25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.06</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.68</v>
       </c>
       <c r="S25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.38</v>
       </c>
       <c r="U25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V25">
-        <f t="shared" si="8"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="W25">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X25">
         <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
+      <c r="W25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="12"/>
+        <v>0.14000000000000001</v>
+      </c>
       <c r="Y25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.999999999999999E-2</v>
       </c>
       <c r="Z25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="AA25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AB25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
       <c r="AC25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="AD25">
-        <f t="shared" si="16"/>
-        <v>0.89327003128650773</v>
+        <f t="shared" si="18"/>
+        <v>0.89188961576373227</v>
       </c>
       <c r="AE25">
-        <f t="shared" si="17"/>
-        <v>-1.0520437130738469E-2</v>
+        <f t="shared" si="19"/>
+        <v>-6.79071974479728E-3</v>
       </c>
       <c r="AF25">
-        <f t="shared" si="18"/>
-        <v>1.7760196254422769</v>
+        <f t="shared" si="20"/>
+        <v>1.7769885117826671</v>
       </c>
       <c r="AG25">
-        <f t="shared" si="19"/>
-        <v>3.2746340414573361E-3</v>
+        <f t="shared" si="21"/>
+        <v>8.4304769779097732E-3</v>
       </c>
       <c r="AH25">
-        <f t="shared" si="20"/>
-        <v>1.6754902126813931</v>
+        <f t="shared" si="22"/>
+        <v>1.6764042563987425</v>
       </c>
       <c r="AI25">
-        <f t="shared" si="21"/>
-        <v>3.0892773976014531E-3</v>
+        <f t="shared" si="23"/>
+        <v>7.9532801678394716E-3</v>
       </c>
       <c r="AJ25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>111.1111111111111</v>
       </c>
     </row>
@@ -3868,16 +3916,18 @@
         <v>1064</v>
       </c>
       <c r="H26">
+        <f t="shared" si="0"/>
         <v>1056</v>
       </c>
       <c r="I26">
+        <f t="shared" si="1"/>
         <v>1083</v>
       </c>
       <c r="J26">
         <v>3</v>
       </c>
       <c r="K26">
-        <v>0.1030908438259148</v>
+        <v>0.1036721881410238</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -3886,95 +3936,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.52</v>
       </c>
       <c r="O26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="P26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.06</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.0000000000000053E-2</v>
       </c>
       <c r="R26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.68</v>
       </c>
       <c r="S26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.9999999999999907E-2</v>
       </c>
       <c r="T26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.38</v>
       </c>
       <c r="U26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.999999999999998E-2</v>
       </c>
       <c r="V26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="W26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.999999999999999E-2</v>
       </c>
       <c r="X26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.16</v>
       </c>
       <c r="Y26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AA26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.9999999999999962E-2</v>
       </c>
       <c r="AB26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.38</v>
       </c>
       <c r="AC26">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AD26">
-        <f t="shared" si="16"/>
-        <v>0.88274959415576926</v>
+        <f t="shared" si="18"/>
+        <v>0.88509889601893499</v>
       </c>
       <c r="AE26">
-        <f t="shared" si="17"/>
-        <v>1.3795071172195805E-2</v>
+        <f t="shared" si="19"/>
+        <v>1.5221196722706831E-2</v>
       </c>
       <c r="AF26">
-        <f t="shared" si="18"/>
-        <v>1.7792942594837342</v>
+        <f t="shared" si="20"/>
+        <v>1.7854189887605769</v>
       </c>
       <c r="AG26">
-        <f t="shared" si="19"/>
-        <v>-0.11164517809927554</v>
+        <f t="shared" si="21"/>
+        <v>-0.11122356404181422</v>
       </c>
       <c r="AH26">
-        <f t="shared" si="20"/>
-        <v>1.6785794900789945</v>
+        <f t="shared" si="22"/>
+        <v>1.6843575365665819</v>
       </c>
       <c r="AI26">
-        <f t="shared" si="21"/>
-        <v>-0.18960709598572811</v>
+        <f t="shared" si="23"/>
+        <v>-0.18954019306768677</v>
       </c>
       <c r="AJ26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>115.38461538461539</v>
       </c>
     </row>
@@ -4001,16 +4051,18 @@
         <v>1091</v>
       </c>
       <c r="H27">
+        <f t="shared" si="0"/>
         <v>1083</v>
       </c>
       <c r="I27">
+        <f t="shared" si="1"/>
         <v>1112</v>
       </c>
       <c r="J27">
         <v>3</v>
       </c>
       <c r="K27">
-        <v>0.1065321020690814</v>
+        <v>0.107485553806543</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -4019,95 +4071,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.54</v>
       </c>
       <c r="O27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.9999999999999925E-2</v>
       </c>
       <c r="P27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.1200000000000001</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.9999999999999831E-2</v>
       </c>
       <c r="R27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.7</v>
       </c>
       <c r="S27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="T27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.42</v>
       </c>
       <c r="U27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="V27">
-        <f t="shared" si="8"/>
-        <v>0.16</v>
-      </c>
-      <c r="W27">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X27">
         <f t="shared" si="10"/>
         <v>0.16</v>
       </c>
+      <c r="W27">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="12"/>
+        <v>0.16</v>
+      </c>
       <c r="Y27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.32</v>
       </c>
       <c r="AA27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.38</v>
       </c>
       <c r="AC27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.999999999999998E-2</v>
       </c>
       <c r="AD27">
-        <f t="shared" si="16"/>
-        <v>0.89654466532796506</v>
+        <f t="shared" si="18"/>
+        <v>0.90032009274164182</v>
       </c>
       <c r="AE27">
-        <f t="shared" si="17"/>
-        <v>-0.12544024927147157</v>
+        <f t="shared" si="19"/>
+        <v>-0.12644476076452094</v>
       </c>
       <c r="AF27">
-        <f t="shared" si="18"/>
-        <v>1.6676490813844587</v>
+        <f t="shared" si="20"/>
+        <v>1.6741954247187627</v>
       </c>
       <c r="AG27">
-        <f t="shared" si="19"/>
-        <v>-0.18919314193491399</v>
+        <f t="shared" si="21"/>
+        <v>-0.19470072709059272</v>
       </c>
       <c r="AH27">
-        <f t="shared" si="20"/>
-        <v>1.4889723940932664</v>
+        <f t="shared" si="22"/>
+        <v>1.4948173434988952</v>
       </c>
       <c r="AI27">
-        <f t="shared" si="21"/>
-        <v>-0.23604363184788957</v>
+        <f t="shared" si="23"/>
+        <v>-0.24100827771231037</v>
       </c>
       <c r="AJ27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>111.1111111111111</v>
       </c>
     </row>
@@ -4134,16 +4186,18 @@
         <v>1120</v>
       </c>
       <c r="H28">
+        <f t="shared" si="0"/>
         <v>1112</v>
       </c>
       <c r="I28">
+        <f t="shared" si="1"/>
         <v>1142</v>
       </c>
       <c r="J28">
         <v>3</v>
       </c>
       <c r="K28">
-        <v>7.7616861884947555E-2</v>
+        <v>7.8199475800996274E-2</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -4152,95 +4206,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.57999999999999996</v>
       </c>
       <c r="O28">
-        <f t="shared" si="1"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="P28">
-        <f t="shared" si="2"/>
-        <v>1.18</v>
-      </c>
-      <c r="Q28">
         <f t="shared" si="3"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="R28">
+      <c r="P28">
         <f t="shared" si="4"/>
-        <v>0.74</v>
-      </c>
-      <c r="S28">
+        <v>1.18</v>
+      </c>
+      <c r="Q28">
         <f t="shared" si="5"/>
         <v>2.0000000000000018E-2</v>
       </c>
+      <c r="R28">
+        <f t="shared" si="6"/>
+        <v>0.74</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="7"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
       <c r="T28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.44</v>
       </c>
       <c r="U28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V28">
-        <f t="shared" si="8"/>
-        <v>0.16</v>
-      </c>
-      <c r="W28">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X28">
         <f t="shared" si="10"/>
         <v>0.16</v>
       </c>
+      <c r="W28">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="12"/>
+        <v>0.16</v>
+      </c>
       <c r="Y28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.32</v>
       </c>
       <c r="AA28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.42</v>
       </c>
       <c r="AC28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AD28">
-        <f t="shared" si="16"/>
-        <v>0.77110441605649349</v>
+        <f t="shared" si="18"/>
+        <v>0.77387533197712088</v>
       </c>
       <c r="AE28">
-        <f t="shared" si="17"/>
-        <v>-6.3752892663442418E-2</v>
+        <f t="shared" si="19"/>
+        <v>-6.8255966326071782E-2</v>
       </c>
       <c r="AF28">
-        <f t="shared" si="18"/>
-        <v>1.4784559394495447</v>
+        <f t="shared" si="20"/>
+        <v>1.47949469762817</v>
       </c>
       <c r="AG28">
-        <f t="shared" si="19"/>
-        <v>-0.22298019468111141</v>
+        <f t="shared" si="21"/>
+        <v>-0.22441331800913167</v>
       </c>
       <c r="AH28">
-        <f t="shared" si="20"/>
-        <v>1.2529287622453769</v>
+        <f t="shared" si="22"/>
+        <v>1.2538090657865848</v>
       </c>
       <c r="AI28">
-        <f t="shared" si="21"/>
-        <v>-0.20669897493834899</v>
+        <f t="shared" si="23"/>
+        <v>-0.2079079161040529</v>
       </c>
       <c r="AJ28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>103.44827586206897</v>
       </c>
     </row>
@@ -4267,16 +4321,18 @@
         <v>1150</v>
       </c>
       <c r="H29">
+        <f t="shared" si="0"/>
         <v>1142</v>
       </c>
       <c r="I29">
+        <f t="shared" si="1"/>
         <v>1172</v>
       </c>
       <c r="J29">
         <v>3</v>
       </c>
       <c r="K29">
-        <v>6.4881661163677107E-2</v>
+        <v>6.4553291734872953E-2</v>
       </c>
       <c r="L29">
         <v>2</v>
@@ -4285,95 +4341,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
       <c r="O29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="R29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.76</v>
       </c>
       <c r="S29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.44</v>
       </c>
       <c r="U29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.999999999999998E-2</v>
       </c>
       <c r="V29">
-        <f t="shared" si="8"/>
-        <v>0.16</v>
-      </c>
-      <c r="W29">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X29">
         <f t="shared" si="10"/>
         <v>0.16</v>
       </c>
+      <c r="W29">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="12"/>
+        <v>0.16</v>
+      </c>
       <c r="Y29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.32</v>
       </c>
       <c r="AA29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.44</v>
       </c>
       <c r="AC29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AD29">
-        <f t="shared" si="16"/>
-        <v>0.70735152339305107</v>
+        <f t="shared" si="18"/>
+        <v>0.7056193656510491</v>
       </c>
       <c r="AE29">
-        <f t="shared" si="17"/>
-        <v>-0.15922730201766877</v>
+        <f t="shared" si="19"/>
+        <v>-0.15615735168305989</v>
       </c>
       <c r="AF29">
-        <f t="shared" si="18"/>
-        <v>1.2554757447684333</v>
+        <f t="shared" si="20"/>
+        <v>1.2550813796190383</v>
       </c>
       <c r="AG29">
-        <f t="shared" si="19"/>
-        <v>-0.27165040653840045</v>
+        <f t="shared" si="21"/>
+        <v>-0.26935958636494894</v>
       </c>
       <c r="AH29">
-        <f t="shared" si="20"/>
-        <v>1.0462297873070279</v>
+        <f t="shared" si="22"/>
+        <v>1.0459011496825319</v>
       </c>
       <c r="AI29">
-        <f t="shared" si="21"/>
-        <v>-0.25282225647635626</v>
+        <f t="shared" si="23"/>
+        <v>-0.25096421963891147</v>
       </c>
       <c r="AJ29">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
     </row>
@@ -4400,16 +4456,18 @@
         <v>1180</v>
       </c>
       <c r="H30">
+        <f t="shared" si="0"/>
         <v>1172</v>
       </c>
       <c r="I30">
+        <f t="shared" si="1"/>
         <v>1204</v>
       </c>
       <c r="J30">
         <v>3</v>
       </c>
       <c r="K30">
-        <v>3.8431879713417758E-2</v>
+        <v>3.8623494858241833E-2</v>
       </c>
       <c r="L30">
         <v>2</v>
@@ -4418,95 +4476,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
       <c r="O30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="P30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.24</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-4.0000000000000036E-2</v>
       </c>
       <c r="R30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.76</v>
       </c>
       <c r="S30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="T30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.48</v>
       </c>
       <c r="U30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.06</v>
       </c>
       <c r="V30">
-        <f t="shared" si="8"/>
-        <v>0.16</v>
-      </c>
-      <c r="W30">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X30">
         <f t="shared" si="10"/>
         <v>0.16</v>
       </c>
+      <c r="W30">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="12"/>
+        <v>0.16</v>
+      </c>
       <c r="Y30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-1.999999999999999E-2</v>
       </c>
       <c r="Z30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.32</v>
       </c>
       <c r="AA30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-1.9999999999999962E-2</v>
       </c>
       <c r="AB30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.44</v>
       </c>
       <c r="AC30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.999999999999998E-2</v>
       </c>
       <c r="AD30">
-        <f t="shared" si="16"/>
-        <v>0.5481242213753823</v>
+        <f t="shared" si="18"/>
+        <v>0.54946201396798922</v>
       </c>
       <c r="AE30">
-        <f t="shared" si="17"/>
-        <v>-0.11242310452073179</v>
+        <f t="shared" si="19"/>
+        <v>-0.11320223468188911</v>
       </c>
       <c r="AF30">
-        <f t="shared" si="18"/>
-        <v>0.98382533823003282</v>
+        <f t="shared" si="20"/>
+        <v>0.98572179325408937</v>
       </c>
       <c r="AG30">
-        <f t="shared" si="19"/>
-        <v>5.0826274801633264E-2</v>
+        <f t="shared" si="21"/>
+        <v>4.9402444407502966E-2</v>
       </c>
       <c r="AH30">
-        <f t="shared" si="20"/>
-        <v>0.79340753083067161</v>
+        <f t="shared" si="22"/>
+        <v>0.79493693004362043</v>
       </c>
       <c r="AI30">
-        <f t="shared" si="21"/>
-        <v>6.8802146695716826E-2</v>
+        <f t="shared" si="23"/>
+        <v>6.7666601341039856E-2</v>
       </c>
       <c r="AJ30">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
     </row>
@@ -4533,16 +4591,18 @@
         <v>1211</v>
       </c>
       <c r="H31">
+        <f t="shared" si="0"/>
         <v>1204</v>
       </c>
       <c r="I31">
+        <f t="shared" si="1"/>
         <v>1232</v>
       </c>
       <c r="J31">
         <v>3</v>
       </c>
       <c r="K31">
-        <v>2.4106785895889049E-2</v>
+        <v>2.416941457064271E-2</v>
       </c>
       <c r="L31">
         <v>2</v>
@@ -4551,95 +4611,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.64</v>
       </c>
       <c r="O31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-7.999999999999996E-2</v>
       </c>
       <c r="P31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="3"/>
-        <v>-6.0000000000000053E-2</v>
-      </c>
-      <c r="R31">
-        <f t="shared" si="4"/>
-        <v>0.78</v>
-      </c>
-      <c r="S31">
         <f t="shared" si="5"/>
         <v>-6.0000000000000053E-2</v>
       </c>
+      <c r="R31">
+        <f t="shared" si="6"/>
+        <v>0.78</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="7"/>
+        <v>-6.0000000000000053E-2</v>
+      </c>
       <c r="T31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.42</v>
       </c>
       <c r="U31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.16</v>
       </c>
       <c r="W31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1.999999999999999E-2</v>
       </c>
       <c r="X31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="Y31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.999999999999999E-2</v>
       </c>
       <c r="Z31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AA31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.48</v>
       </c>
       <c r="AC31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-0.06</v>
       </c>
       <c r="AD31">
-        <f t="shared" si="16"/>
-        <v>0.43570111685465052</v>
+        <f t="shared" si="18"/>
+        <v>0.4362597792861001</v>
       </c>
       <c r="AE31">
-        <f t="shared" si="17"/>
-        <v>0.16324937932236494</v>
+        <f t="shared" si="19"/>
+        <v>0.16260467908939208</v>
       </c>
       <c r="AF31">
-        <f t="shared" si="18"/>
-        <v>1.0346516130316661</v>
+        <f t="shared" si="20"/>
+        <v>1.0351242376615923</v>
       </c>
       <c r="AG31">
-        <f t="shared" si="19"/>
-        <v>0.34674828680918823</v>
+        <f t="shared" si="21"/>
+        <v>0.34404338697688486</v>
       </c>
       <c r="AH31">
-        <f t="shared" si="20"/>
-        <v>0.86220967752638844</v>
+        <f t="shared" si="22"/>
+        <v>0.86260353138466028</v>
       </c>
       <c r="AI31">
-        <f t="shared" si="21"/>
-        <v>0.34954462057962432</v>
+        <f t="shared" si="23"/>
+        <v>0.34719263057891636</v>
       </c>
       <c r="AJ31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>93.75</v>
       </c>
     </row>
@@ -4666,16 +4726,18 @@
         <v>1240</v>
       </c>
       <c r="H32">
+        <f t="shared" si="0"/>
         <v>1232</v>
       </c>
       <c r="I32">
+        <f t="shared" si="1"/>
         <v>1261</v>
       </c>
       <c r="J32">
         <v>3</v>
       </c>
       <c r="K32">
-        <v>4.6069775403135602E-2</v>
+        <v>4.6056220032110122E-2</v>
       </c>
       <c r="L32">
         <v>2</v>
@@ -4684,95 +4746,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="O32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.9999999999999907E-2</v>
       </c>
       <c r="P32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.1399999999999999</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.72</v>
       </c>
       <c r="S32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="T32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.42</v>
       </c>
       <c r="U32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1.9999999999999962E-2</v>
       </c>
       <c r="V32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="W32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.999999999999999E-2</v>
       </c>
       <c r="X32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.16</v>
       </c>
       <c r="Y32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AA32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.9999999999999962E-2</v>
       </c>
       <c r="AB32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.42</v>
       </c>
       <c r="AC32">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AD32">
-        <f t="shared" si="16"/>
-        <v>0.59895049617701546</v>
+        <f t="shared" si="18"/>
+        <v>0.59886445837549218</v>
       </c>
       <c r="AE32">
-        <f t="shared" si="17"/>
-        <v>0.18349890748682329</v>
+        <f t="shared" si="19"/>
+        <v>0.18143870788749283</v>
       </c>
       <c r="AF32">
-        <f t="shared" si="18"/>
-        <v>1.3813998998408543</v>
+        <f t="shared" si="20"/>
+        <v>1.3791676246384772</v>
       </c>
       <c r="AG32">
-        <f t="shared" si="19"/>
-        <v>0.15522757478761973</v>
+        <f t="shared" si="21"/>
+        <v>0.15397496644485176</v>
       </c>
       <c r="AH32">
-        <f t="shared" si="20"/>
-        <v>1.2117542981060128</v>
+        <f t="shared" si="22"/>
+        <v>1.2097961619635766</v>
       </c>
       <c r="AI32">
-        <f t="shared" si="21"/>
-        <v>0.13616453928738559</v>
+        <f t="shared" si="23"/>
+        <v>0.13506576003934367</v>
       </c>
       <c r="AJ32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>107.14285714285714</v>
       </c>
     </row>
@@ -4799,16 +4861,18 @@
         <v>1269</v>
       </c>
       <c r="H33">
+        <f t="shared" si="0"/>
         <v>1261</v>
       </c>
       <c r="I33">
+        <f t="shared" si="1"/>
         <v>1289</v>
       </c>
       <c r="J33">
         <v>3</v>
       </c>
       <c r="K33">
-        <v>8.001787846088694E-2</v>
+        <v>7.9560481774487379E-2</v>
       </c>
       <c r="L33">
         <v>1</v>
@@ -4817,95 +4881,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.57999999999999996</v>
       </c>
       <c r="O33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1.9999999999999907E-2</v>
       </c>
       <c r="P33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.1399999999999999</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-3.9999999999999813E-2</v>
       </c>
       <c r="R33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.74</v>
       </c>
       <c r="S33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-4.0000000000000036E-2</v>
       </c>
       <c r="T33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="U33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V33">
-        <f t="shared" si="8"/>
-        <v>0.16</v>
-      </c>
-      <c r="W33">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X33">
         <f t="shared" si="10"/>
         <v>0.16</v>
       </c>
+      <c r="W33">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="12"/>
+        <v>0.16</v>
+      </c>
       <c r="Y33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-1.999999999999999E-2</v>
       </c>
       <c r="Z33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.32</v>
       </c>
       <c r="AA33">
-        <f t="shared" si="13"/>
-        <v>-1.9999999999999962E-2</v>
-      </c>
-      <c r="AB33">
-        <f t="shared" si="14"/>
-        <v>0.42</v>
-      </c>
-      <c r="AC33">
         <f t="shared" si="15"/>
         <v>-1.9999999999999962E-2</v>
       </c>
+      <c r="AB33">
+        <f t="shared" si="16"/>
+        <v>0.42</v>
+      </c>
+      <c r="AC33">
+        <f t="shared" si="17"/>
+        <v>-1.9999999999999962E-2</v>
+      </c>
       <c r="AD33">
-        <f t="shared" si="16"/>
-        <v>0.78244940366383875</v>
+        <f t="shared" si="18"/>
+        <v>0.78030316626298502</v>
       </c>
       <c r="AE33">
-        <f t="shared" si="17"/>
-        <v>-2.8271332699203455E-2</v>
+        <f t="shared" si="19"/>
+        <v>-2.7463741442641076E-2</v>
       </c>
       <c r="AF33">
-        <f t="shared" si="18"/>
-        <v>1.536627474628474</v>
+        <f t="shared" si="20"/>
+        <v>1.533142591083329</v>
       </c>
       <c r="AG33">
-        <f t="shared" si="19"/>
-        <v>0.13279883624867206</v>
+        <f t="shared" si="21"/>
+        <v>0.13674465320518325</v>
       </c>
       <c r="AH33">
-        <f t="shared" si="20"/>
-        <v>1.3479188373933984</v>
+        <f t="shared" si="22"/>
+        <v>1.3448619220029203</v>
       </c>
       <c r="AI33">
-        <f t="shared" si="21"/>
-        <v>0.16974144522218881</v>
+        <f t="shared" si="23"/>
+        <v>0.17321739098663613</v>
       </c>
       <c r="AJ33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>103.44827586206897</v>
       </c>
     </row>
@@ -4932,16 +4996,18 @@
         <v>1296</v>
       </c>
       <c r="H34">
+        <f t="shared" si="0"/>
         <v>1289</v>
       </c>
       <c r="I34">
+        <f t="shared" si="1"/>
         <v>1316</v>
       </c>
       <c r="J34">
         <v>3</v>
       </c>
       <c r="K34">
-        <v>7.4111097692802469E-2</v>
+        <v>7.3837720200395682E-2</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -4950,95 +5016,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="O34">
-        <f t="shared" si="1"/>
-        <v>-2.0000000000000018E-2</v>
-      </c>
-      <c r="P34">
-        <f t="shared" si="2"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Q34">
         <f t="shared" si="3"/>
         <v>-2.0000000000000018E-2</v>
       </c>
+      <c r="P34">
+        <f t="shared" si="4"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="5"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
       <c r="R34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.7</v>
       </c>
       <c r="S34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.9999999999999907E-2</v>
       </c>
       <c r="T34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="U34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.16</v>
       </c>
       <c r="W34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1.999999999999999E-2</v>
       </c>
       <c r="X34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="Y34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AA34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="AB34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
       <c r="AC34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AD34">
-        <f t="shared" si="16"/>
-        <v>0.75417807096463529</v>
+        <f t="shared" si="18"/>
+        <v>0.75283942482034394</v>
       </c>
       <c r="AE34">
-        <f t="shared" si="17"/>
-        <v>0.16107016894787551</v>
+        <f t="shared" si="19"/>
+        <v>0.16420839464782444</v>
       </c>
       <c r="AF34">
-        <f t="shared" si="18"/>
-        <v>1.6694263108771461</v>
+        <f t="shared" si="20"/>
+        <v>1.6698872442885122</v>
       </c>
       <c r="AG34">
-        <f t="shared" si="19"/>
-        <v>5.3658224187217884E-2</v>
+        <f t="shared" si="21"/>
+        <v>5.4650778474732764E-2</v>
       </c>
       <c r="AH34">
-        <f t="shared" si="20"/>
-        <v>1.5176602826155872</v>
+        <f t="shared" si="22"/>
+        <v>1.5180793129895565</v>
       </c>
       <c r="AI34">
-        <f t="shared" si="21"/>
-        <v>7.7788360962527614E-2</v>
+        <f t="shared" si="23"/>
+        <v>7.8715152531966481E-2</v>
       </c>
       <c r="AJ34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>107.14285714285714</v>
       </c>
     </row>
@@ -5065,16 +5131,18 @@
         <v>1323</v>
       </c>
       <c r="H35">
+        <f t="shared" si="0"/>
         <v>1316</v>
       </c>
       <c r="I35">
+        <f t="shared" si="1"/>
         <v>1343</v>
       </c>
       <c r="J35">
         <v>3</v>
       </c>
       <c r="K35">
-        <v>0.1113050193147276</v>
+        <v>0.1117708210768936</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -5083,95 +5151,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.54</v>
       </c>
       <c r="O35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.08</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="R35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.68</v>
       </c>
       <c r="S35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="U35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="V35">
-        <f t="shared" si="8"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="W35">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X35">
         <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
+      <c r="W35">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="12"/>
+        <v>0.14000000000000001</v>
+      </c>
       <c r="Y35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="AA35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
       <c r="AC35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AD35">
-        <f t="shared" si="16"/>
-        <v>0.91524823991251081</v>
+        <f t="shared" si="18"/>
+        <v>0.91704781946816838</v>
       </c>
       <c r="AE35">
-        <f t="shared" si="17"/>
-        <v>-0.10741194476065774</v>
+        <f t="shared" si="19"/>
+        <v>-0.1095576161730919</v>
       </c>
       <c r="AF35">
-        <f t="shared" si="18"/>
-        <v>1.723084535064364</v>
+        <f t="shared" si="20"/>
+        <v>1.724538022763245</v>
       </c>
       <c r="AG35">
-        <f t="shared" si="19"/>
-        <v>-3.161947086666772E-2</v>
+        <f t="shared" si="21"/>
+        <v>-3.4290833719603508E-2</v>
       </c>
       <c r="AH35">
-        <f t="shared" si="20"/>
-        <v>1.5954486435781148</v>
+        <f t="shared" si="22"/>
+        <v>1.5967944655215229</v>
       </c>
       <c r="AI35">
-        <f t="shared" si="21"/>
-        <v>2.731150989569997E-4</v>
+        <f t="shared" si="23"/>
+        <v>-2.2216456690311581E-3</v>
       </c>
       <c r="AJ35">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>111.1111111111111</v>
       </c>
     </row>
@@ -5198,16 +5266,18 @@
         <v>1350</v>
       </c>
       <c r="H36">
+        <f t="shared" si="0"/>
         <v>1343</v>
       </c>
       <c r="I36">
+        <f t="shared" si="1"/>
         <v>1369</v>
       </c>
       <c r="J36">
         <v>3</v>
       </c>
       <c r="K36">
-        <v>8.5541564205045065E-2</v>
+        <v>8.5464847041448841E-2</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -5216,95 +5286,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.54</v>
       </c>
       <c r="O36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="P36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.06</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="R36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.68</v>
       </c>
       <c r="S36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.38</v>
       </c>
       <c r="U36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="V36">
-        <f t="shared" si="8"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="W36">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X36">
         <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
+      <c r="W36">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="12"/>
+        <v>0.14000000000000001</v>
+      </c>
       <c r="Y36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.999999999999999E-2</v>
       </c>
       <c r="Z36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="AA36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AB36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
       <c r="AC36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="AD36">
-        <f t="shared" si="16"/>
-        <v>0.80783629515185307</v>
+        <f t="shared" si="18"/>
+        <v>0.80749020329507648</v>
       </c>
       <c r="AE36">
-        <f t="shared" si="17"/>
-        <v>7.5792473893990131E-2</v>
+        <f t="shared" si="19"/>
+        <v>7.5266782453488501E-2</v>
       </c>
       <c r="AF36">
-        <f t="shared" si="18"/>
-        <v>1.6914650641976963</v>
+        <f t="shared" si="20"/>
+        <v>1.6902471890436415</v>
       </c>
       <c r="AG36">
-        <f t="shared" si="19"/>
-        <v>-7.4876060116892962E-3</v>
+        <f t="shared" si="21"/>
+        <v>-1.076242188995602E-2</v>
       </c>
       <c r="AH36">
-        <f t="shared" si="20"/>
-        <v>1.5957217586770718</v>
+        <f t="shared" si="22"/>
+        <v>1.5945728198524918</v>
       </c>
       <c r="AI36">
-        <f t="shared" si="21"/>
-        <v>-3.6483371467806114E-2</v>
+        <f t="shared" si="23"/>
+        <v>-3.9494331747227607E-2</v>
       </c>
       <c r="AJ36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>111.1111111111111</v>
       </c>
     </row>
@@ -5331,16 +5401,18 @@
         <v>1377</v>
       </c>
       <c r="H37">
+        <f t="shared" si="0"/>
         <v>1369</v>
       </c>
       <c r="I37">
+        <f t="shared" si="1"/>
         <v>1397</v>
       </c>
       <c r="J37">
         <v>3</v>
       </c>
       <c r="K37">
-        <v>0.1033081740220483</v>
+        <v>0.1030926698901285</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -5349,95 +5421,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.52</v>
       </c>
       <c r="O37">
-        <f t="shared" si="1"/>
-        <v>4.0000000000000036E-2</v>
-      </c>
-      <c r="P37">
-        <f t="shared" si="2"/>
-        <v>1.08</v>
-      </c>
-      <c r="Q37">
         <f t="shared" si="3"/>
         <v>4.0000000000000036E-2</v>
       </c>
+      <c r="P37">
+        <f t="shared" si="4"/>
+        <v>1.08</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="5"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
       <c r="R37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.68</v>
       </c>
       <c r="S37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.9999999999999907E-2</v>
       </c>
       <c r="T37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="U37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.9999999999999962E-2</v>
       </c>
       <c r="V37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="W37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.999999999999999E-2</v>
       </c>
       <c r="X37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.16</v>
       </c>
       <c r="Y37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-1.999999999999999E-2</v>
       </c>
       <c r="Z37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AA37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.38</v>
       </c>
       <c r="AC37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AD37">
-        <f t="shared" si="16"/>
-        <v>0.8836287690458432</v>
+        <f t="shared" si="18"/>
+        <v>0.88275698574856498</v>
       </c>
       <c r="AE37">
-        <f t="shared" si="17"/>
-        <v>-8.3280079905679427E-2</v>
+        <f t="shared" si="19"/>
+        <v>-8.602920434344441E-2</v>
       </c>
       <c r="AF37">
-        <f t="shared" si="18"/>
-        <v>1.683977458186007</v>
+        <f t="shared" si="20"/>
+        <v>1.6794847671536854</v>
       </c>
       <c r="AG37">
-        <f t="shared" si="19"/>
-        <v>-0.13321713873551611</v>
+        <f t="shared" si="21"/>
+        <v>-0.13201445586574279</v>
       </c>
       <c r="AH37">
-        <f t="shared" si="20"/>
-        <v>1.5592383872092657</v>
+        <f t="shared" si="22"/>
+        <v>1.5550784881052642</v>
       </c>
       <c r="AI37">
-        <f t="shared" si="21"/>
-        <v>-0.17463095912847049</v>
+        <f t="shared" si="23"/>
+        <v>-0.17340856731245835</v>
       </c>
       <c r="AJ37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>115.38461538461539</v>
       </c>
     </row>
@@ -5464,16 +5536,18 @@
         <v>1404</v>
       </c>
       <c r="H38">
+        <f t="shared" si="0"/>
         <v>1397</v>
       </c>
       <c r="I38">
+        <f t="shared" si="1"/>
         <v>1425</v>
       </c>
       <c r="J38">
         <v>2</v>
       </c>
       <c r="K38">
-        <v>8.3890573227922552E-2</v>
+        <v>8.3098751460221304E-2</v>
       </c>
       <c r="L38">
         <v>1</v>
@@ -5482,95 +5556,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="O38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.1200000000000001</v>
       </c>
       <c r="Q38" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.78</v>
       </c>
       <c r="R38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.7</v>
       </c>
       <c r="S38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="T38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.42</v>
       </c>
       <c r="U38" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.7600000000000002</v>
       </c>
       <c r="V38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.16</v>
       </c>
       <c r="W38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1.999999999999999E-2</v>
       </c>
       <c r="X38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="Y38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.999999999999999E-2</v>
       </c>
       <c r="Z38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AA38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB38">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
       <c r="AC38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.9999999999999962E-2</v>
       </c>
       <c r="AD38">
-        <f t="shared" si="16"/>
-        <v>0.80034868914016377</v>
+        <f t="shared" si="18"/>
+        <v>0.79672778140512057</v>
       </c>
       <c r="AE38">
-        <f t="shared" si="17"/>
-        <v>-4.9937058829836789E-2</v>
+        <f t="shared" si="19"/>
+        <v>-4.5985251522298487E-2</v>
       </c>
       <c r="AF38">
-        <f t="shared" si="18"/>
-        <v>1.5507603194504909</v>
+        <f t="shared" si="20"/>
+        <v>1.5474703112879427</v>
       </c>
       <c r="AG38" s="3">
-        <f t="shared" si="19"/>
-        <v>-0.80034868914016388</v>
+        <f t="shared" si="21"/>
+        <v>-0.79672778140512057</v>
       </c>
       <c r="AH38">
-        <f t="shared" si="20"/>
-        <v>1.3846074280807952</v>
+        <f t="shared" si="22"/>
+        <v>1.3816699207928058</v>
       </c>
       <c r="AI38" s="3">
-        <f t="shared" si="21"/>
-        <v>-1.1921941895396857</v>
+        <f t="shared" si="23"/>
+        <v>-1.1891718362074668</v>
       </c>
       <c r="AJ38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>107.14285714285714</v>
       </c>
     </row>
@@ -5597,16 +5671,18 @@
         <v>1433</v>
       </c>
       <c r="H39">
+        <f t="shared" si="0"/>
         <v>1425</v>
       </c>
       <c r="I39" s="3">
+        <f t="shared" si="1"/>
         <v>1592</v>
       </c>
       <c r="J39">
         <v>1</v>
       </c>
       <c r="K39">
-        <v>7.3343362369486409E-2</v>
+        <v>7.3410631991741207E-2</v>
       </c>
       <c r="L39">
         <v>2</v>
@@ -5615,95 +5691,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="O39" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.78</v>
       </c>
       <c r="P39" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.9</v>
       </c>
       <c r="Q39" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="R39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.72</v>
       </c>
       <c r="S39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8.0000000000000071E-2</v>
       </c>
       <c r="T39" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.18</v>
       </c>
       <c r="U39" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-4.0000000000000036E-2</v>
       </c>
       <c r="V39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="W39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.999999999999999E-2</v>
       </c>
       <c r="X39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.16</v>
       </c>
       <c r="Y39" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-2.7</v>
       </c>
       <c r="Z39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AA39" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-2.6799999999999997</v>
       </c>
       <c r="AB39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.42</v>
       </c>
       <c r="AC39" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.7600000000000002</v>
       </c>
       <c r="AD39">
-        <f t="shared" si="16"/>
-        <v>0.75041163031032698</v>
+        <f t="shared" si="18"/>
+        <v>0.75074252988282208</v>
       </c>
       <c r="AE39" s="3">
-        <f t="shared" si="17"/>
-        <v>-0.75041163031032698</v>
+        <f t="shared" si="19"/>
+        <v>-0.75074252988282208</v>
       </c>
       <c r="AF39" s="3">
-        <f t="shared" si="18"/>
-        <v>0.75041163031032698</v>
+        <f t="shared" si="20"/>
+        <v>0.75074252988282208</v>
       </c>
       <c r="AG39" s="3">
-        <f t="shared" si="19"/>
-        <v>2.415977532413327E-2</v>
+        <f t="shared" si="21"/>
+        <v>2.4257685606202117E-2</v>
       </c>
       <c r="AH39" s="3">
-        <f t="shared" si="20"/>
-        <v>0.19241323854110948</v>
+        <f t="shared" si="22"/>
+        <v>0.19249808458533901</v>
       </c>
       <c r="AI39" s="3">
-        <f t="shared" si="21"/>
-        <v>4.1784887772814416E-3</v>
+        <f t="shared" si="23"/>
+        <v>4.2024777215199371E-3</v>
       </c>
       <c r="AJ39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>107.14285714285714</v>
       </c>
     </row>
@@ -5730,9 +5806,11 @@
         <v>1465</v>
       </c>
       <c r="H40" s="3">
+        <f t="shared" si="0"/>
         <v>1592</v>
       </c>
       <c r="I40" s="3">
+        <f t="shared" si="1"/>
         <v>1622</v>
       </c>
       <c r="J40">
@@ -5745,95 +5823,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N40" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.34</v>
       </c>
       <c r="O40" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-2.7399999999999998</v>
       </c>
       <c r="P40" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.94</v>
       </c>
       <c r="Q40" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-2.8</v>
       </c>
       <c r="R40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
       <c r="S40" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-6.0000000000000053E-2</v>
       </c>
       <c r="T40" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.14</v>
       </c>
       <c r="U40" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-2.74</v>
       </c>
       <c r="V40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.16</v>
       </c>
       <c r="W40" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="X40" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-2.54</v>
       </c>
       <c r="Y40" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.68</v>
       </c>
       <c r="Z40" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-2.38</v>
       </c>
       <c r="AA40" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.6799999999999997</v>
       </c>
       <c r="AB40" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3.18</v>
       </c>
       <c r="AC40" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-2.74</v>
       </c>
       <c r="AD40" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AE40" s="3">
-        <f t="shared" si="17"/>
-        <v>0.77457140563446025</v>
+        <f t="shared" si="19"/>
+        <v>0.7750002154890242</v>
       </c>
       <c r="AF40" s="3">
-        <f t="shared" si="18"/>
-        <v>0.77457140563446025</v>
+        <f t="shared" si="20"/>
+        <v>0.7750002154890242</v>
       </c>
       <c r="AG40" s="3">
-        <f t="shared" si="19"/>
-        <v>0.82912535441140001</v>
+        <f t="shared" si="21"/>
+        <v>0.82791770750354254</v>
       </c>
       <c r="AH40" s="3">
-        <f t="shared" si="20"/>
-        <v>0.19659172731839092</v>
+        <f t="shared" si="22"/>
+        <v>0.19670056230685895</v>
       </c>
       <c r="AI40" s="3">
-        <f t="shared" si="21"/>
-        <v>1.2101598165814864</v>
+        <f t="shared" si="23"/>
+        <v>1.2093677911953926</v>
       </c>
       <c r="AJ40" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>17.964071856287426</v>
       </c>
     </row>
@@ -5860,16 +5938,18 @@
         <v>1629</v>
       </c>
       <c r="H41" s="3">
+        <f t="shared" si="0"/>
         <v>1622</v>
       </c>
       <c r="I41">
+        <f t="shared" si="1"/>
         <v>1649</v>
       </c>
       <c r="J41">
         <v>3</v>
       </c>
       <c r="K41">
-        <v>7.834621922603896E-2</v>
+        <v>7.843669654065609E-2</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -5878,95 +5958,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
       <c r="O41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.9999999999999942E-2</v>
       </c>
       <c r="P41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.1399999999999999</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-5.9999999999999831E-2</v>
       </c>
       <c r="R41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.74</v>
       </c>
       <c r="S41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-5.9999999999999942E-2</v>
       </c>
       <c r="T41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="U41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.16</v>
       </c>
       <c r="W41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1.999999999999999E-2</v>
       </c>
       <c r="X41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="Y41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AA41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="AB41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.44</v>
       </c>
       <c r="AC41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-3.999999999999998E-2</v>
       </c>
       <c r="AD41">
-        <f t="shared" si="16"/>
-        <v>0.77457140563446025</v>
+        <f t="shared" si="18"/>
+        <v>0.7750002154890242</v>
       </c>
       <c r="AE41">
-        <f t="shared" si="17"/>
-        <v>5.4553948776939643E-2</v>
+        <f t="shared" si="19"/>
+        <v>5.2917492014518341E-2</v>
       </c>
       <c r="AF41">
-        <f t="shared" si="18"/>
-        <v>1.6036967600458603</v>
+        <f t="shared" si="20"/>
+        <v>1.6029179229925667</v>
       </c>
       <c r="AG41">
-        <f t="shared" si="19"/>
-        <v>5.6629085679688496E-2</v>
+        <f t="shared" si="21"/>
+        <v>5.9284037611887053E-2</v>
       </c>
       <c r="AH41">
-        <f t="shared" si="20"/>
-        <v>1.4067515438998774</v>
+        <f t="shared" si="22"/>
+        <v>1.4060683535022516</v>
       </c>
       <c r="AI41">
-        <f t="shared" si="21"/>
-        <v>0.13058720214229713</v>
+        <f t="shared" si="23"/>
+        <v>0.13300753594631676</v>
       </c>
       <c r="AJ41">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
     </row>
@@ -5993,16 +6073,18 @@
         <v>1656</v>
       </c>
       <c r="H42">
+        <f t="shared" si="0"/>
         <v>1649</v>
       </c>
       <c r="I42">
+        <f t="shared" si="1"/>
         <v>1676</v>
       </c>
       <c r="J42">
         <v>3</v>
       </c>
       <c r="K42">
-        <v>9.0336676237227548E-2</v>
+        <v>9.0060644460078845E-2</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -6011,95 +6093,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.54</v>
       </c>
       <c r="O42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.08</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="R42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.68</v>
       </c>
       <c r="S42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="U42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="V42">
-        <f t="shared" si="8"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="W42">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X42">
         <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
+      <c r="W42">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="12"/>
+        <v>0.14000000000000001</v>
+      </c>
       <c r="Y42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="AA42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
       <c r="AC42">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AD42">
-        <f t="shared" si="16"/>
-        <v>0.8291253544113999</v>
+        <f t="shared" si="18"/>
+        <v>0.82791770750354254</v>
       </c>
       <c r="AE42">
-        <f t="shared" si="17"/>
-        <v>2.0751369027489641E-3</v>
+        <f t="shared" si="19"/>
+        <v>6.3665455973688223E-3</v>
       </c>
       <c r="AF42">
-        <f t="shared" si="18"/>
-        <v>1.6603258457255488</v>
+        <f t="shared" si="20"/>
+        <v>1.6622019606044538</v>
       </c>
       <c r="AG42">
-        <f t="shared" si="19"/>
-        <v>3.4232766262239478E-2</v>
+        <f t="shared" si="21"/>
+        <v>3.3886277686118627E-2</v>
       </c>
       <c r="AH42">
-        <f t="shared" si="20"/>
-        <v>1.5373387460421746</v>
+        <f t="shared" si="22"/>
+        <v>1.5390758894485683</v>
       </c>
       <c r="AI42">
-        <f t="shared" si="21"/>
-        <v>6.1301453946304818E-2</v>
+        <f t="shared" si="23"/>
+        <v>6.100735422178305E-2</v>
       </c>
       <c r="AJ42">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>111.1111111111111</v>
       </c>
     </row>
@@ -6126,16 +6208,18 @@
         <v>1683</v>
       </c>
       <c r="H43">
+        <f t="shared" si="0"/>
         <v>1676</v>
       </c>
       <c r="I43">
+        <f t="shared" si="1"/>
         <v>1702</v>
       </c>
       <c r="J43">
         <v>3</v>
       </c>
       <c r="K43">
-        <v>9.0812126953005529E-2</v>
+        <v>9.1521330643183074E-2</v>
       </c>
       <c r="L43">
         <v>0</v>
@@ -6144,95 +6228,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.54</v>
       </c>
       <c r="O43">
-        <f t="shared" si="1"/>
-        <v>-2.0000000000000018E-2</v>
-      </c>
-      <c r="P43">
-        <f t="shared" si="2"/>
-        <v>1.06</v>
-      </c>
-      <c r="Q43">
         <f t="shared" si="3"/>
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="R43">
+      <c r="P43">
         <f t="shared" si="4"/>
-        <v>0.68</v>
-      </c>
-      <c r="S43">
+        <v>1.06</v>
+      </c>
+      <c r="Q43">
         <f t="shared" si="5"/>
         <v>-2.0000000000000018E-2</v>
       </c>
+      <c r="R43">
+        <f t="shared" si="6"/>
+        <v>0.68</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="7"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
       <c r="T43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.38</v>
       </c>
       <c r="U43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V43">
-        <f t="shared" si="8"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="W43">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X43">
         <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
+      <c r="W43">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="12"/>
+        <v>0.14000000000000001</v>
+      </c>
       <c r="Y43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="AA43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB43">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
       <c r="AC43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="AD43">
-        <f t="shared" si="16"/>
-        <v>0.83120049131414886</v>
+        <f t="shared" si="18"/>
+        <v>0.83428425310091137</v>
       </c>
       <c r="AE43">
-        <f t="shared" si="17"/>
-        <v>3.2157629359490403E-2</v>
+        <f t="shared" si="19"/>
+        <v>2.7519732088749693E-2</v>
       </c>
       <c r="AF43">
-        <f t="shared" si="18"/>
-        <v>1.6945586119877882</v>
+        <f t="shared" si="20"/>
+        <v>1.6960882382905724</v>
       </c>
       <c r="AG43">
-        <f t="shared" si="19"/>
-        <v>5.3967178215684974E-2</v>
+        <f t="shared" si="21"/>
+        <v>4.9545860923428497E-2</v>
       </c>
       <c r="AH43">
-        <f t="shared" si="20"/>
-        <v>1.5986401999884794</v>
+        <f t="shared" si="22"/>
+        <v>1.6000832436703514</v>
       </c>
       <c r="AI43">
-        <f t="shared" si="21"/>
-        <v>8.2634598284091032E-2</v>
+        <f t="shared" si="23"/>
+        <v>7.8411082496957052E-2</v>
       </c>
       <c r="AJ43">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>111.1111111111111</v>
       </c>
     </row>
@@ -6259,16 +6343,18 @@
         <v>1709</v>
       </c>
       <c r="H44">
+        <f t="shared" si="0"/>
         <v>1702</v>
       </c>
       <c r="I44">
+        <f t="shared" si="1"/>
         <v>1728</v>
       </c>
       <c r="J44">
         <v>3</v>
       </c>
       <c r="K44">
-        <v>9.8365396620642226E-2</v>
+        <v>9.7992279208485092E-2</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -6277,95 +6363,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.52</v>
       </c>
       <c r="O44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.04</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="R44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.66</v>
       </c>
       <c r="S44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.38</v>
       </c>
       <c r="U44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="V44">
-        <f t="shared" si="8"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="W44">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X44">
         <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
+      <c r="W44">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="12"/>
+        <v>0.14000000000000001</v>
+      </c>
       <c r="Y44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z44">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="AA44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.38</v>
       </c>
       <c r="AC44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AD44">
-        <f t="shared" si="16"/>
-        <v>0.86335812067363926</v>
+        <f t="shared" si="18"/>
+        <v>0.86180398518966106</v>
       </c>
       <c r="AE44">
-        <f t="shared" si="17"/>
-        <v>2.1809548856194683E-2</v>
+        <f t="shared" si="19"/>
+        <v>2.2026128834678693E-2</v>
       </c>
       <c r="AF44">
-        <f t="shared" si="18"/>
-        <v>1.7485257902034732</v>
+        <f t="shared" si="20"/>
+        <v>1.7456340992140009</v>
       </c>
       <c r="AG44">
-        <f t="shared" si="19"/>
-        <v>-4.6767147111628216E-2</v>
+        <f t="shared" si="21"/>
+        <v>-4.32389348274973E-2</v>
       </c>
       <c r="AH44">
-        <f t="shared" si="20"/>
-        <v>1.6812747982725704</v>
+        <f t="shared" si="22"/>
+        <v>1.6784943261673084</v>
       </c>
       <c r="AI44">
-        <f t="shared" si="21"/>
-        <v>-7.5842116110452551E-2</v>
+        <f t="shared" si="23"/>
+        <v>-7.2461152217776714E-2</v>
       </c>
       <c r="AJ44">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>115.38461538461539</v>
       </c>
     </row>
@@ -6392,16 +6478,18 @@
         <v>1735</v>
       </c>
       <c r="H45">
+        <f t="shared" si="0"/>
         <v>1728</v>
       </c>
       <c r="I45">
+        <f t="shared" si="1"/>
         <v>1755</v>
       </c>
       <c r="J45">
         <v>3</v>
       </c>
       <c r="K45">
-        <v>0.1036892354156467</v>
+        <v>0.1033579839750368</v>
       </c>
       <c r="L45">
         <v>0</v>
@@ -6410,95 +6498,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.52</v>
       </c>
       <c r="O45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="P45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.06</v>
       </c>
       <c r="Q45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="R45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.66</v>
       </c>
       <c r="S45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="T45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="U45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.9999999999999962E-2</v>
       </c>
       <c r="V45">
-        <f t="shared" si="8"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="W45">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X45">
         <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
+      <c r="W45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="12"/>
+        <v>0.14000000000000001</v>
+      </c>
       <c r="Y45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="AA45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.38</v>
       </c>
       <c r="AC45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AD45">
-        <f t="shared" si="16"/>
-        <v>0.88516766952983394</v>
+        <f t="shared" si="18"/>
+        <v>0.88383011402433975</v>
       </c>
       <c r="AE45">
-        <f t="shared" si="17"/>
-        <v>-6.8576695967822787E-2</v>
+        <f t="shared" si="19"/>
+        <v>-6.5265063662175993E-2</v>
       </c>
       <c r="AF45">
-        <f t="shared" si="18"/>
-        <v>1.701758643091845</v>
+        <f t="shared" si="20"/>
+        <v>1.7023951643865036</v>
       </c>
       <c r="AG45">
-        <f t="shared" si="19"/>
-        <v>-3.5658882207111553E-2</v>
+        <f t="shared" si="21"/>
+        <v>-3.0061819963397962E-2</v>
       </c>
       <c r="AH45">
-        <f t="shared" si="20"/>
-        <v>1.6054326821621179</v>
+        <f t="shared" si="22"/>
+        <v>1.6060331739495317</v>
       </c>
       <c r="AI45">
-        <f t="shared" si="21"/>
-        <v>-9.0796535903269415E-2</v>
+        <f t="shared" si="23"/>
+        <v>-8.5730133564890343E-2</v>
       </c>
       <c r="AJ45">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>115.38461538461539</v>
       </c>
     </row>
@@ -6525,16 +6613,18 @@
         <v>1762</v>
       </c>
       <c r="H46">
+        <f t="shared" si="0"/>
         <v>1755</v>
       </c>
       <c r="I46">
+        <f t="shared" si="1"/>
         <v>1783</v>
       </c>
       <c r="J46">
         <v>3</v>
       </c>
       <c r="K46">
-        <v>8.749529901410362E-2</v>
+        <v>8.7939337900975995E-2</v>
       </c>
       <c r="L46">
         <v>0</v>
@@ -6543,95 +6633,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.54</v>
       </c>
       <c r="O46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="P46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="Q46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.9999999999999831E-2</v>
       </c>
       <c r="R46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.68</v>
       </c>
       <c r="S46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.9999999999999925E-2</v>
       </c>
       <c r="T46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.42</v>
       </c>
       <c r="U46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="V46">
-        <f t="shared" si="8"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="W46">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X46">
         <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
+      <c r="W46">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="12"/>
+        <v>0.14000000000000001</v>
+      </c>
       <c r="Y46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.999999999999999E-2</v>
       </c>
       <c r="Z46">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="AA46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AB46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
       <c r="AC46">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.9999999999999962E-2</v>
       </c>
       <c r="AD46">
-        <f t="shared" si="16"/>
-        <v>0.81659097356201116</v>
+        <f t="shared" si="18"/>
+        <v>0.81856505036216376</v>
       </c>
       <c r="AE46">
-        <f t="shared" si="17"/>
-        <v>3.2917813760711012E-2</v>
+        <f t="shared" si="19"/>
+        <v>3.5203243698778031E-2</v>
       </c>
       <c r="AF46">
-        <f t="shared" si="18"/>
-        <v>1.6660997608847334</v>
+        <f t="shared" si="20"/>
+        <v>1.6723333444231057</v>
       </c>
       <c r="AG46">
-        <f t="shared" si="19"/>
-        <v>2.4467378837723874E-2</v>
+        <f t="shared" si="21"/>
+        <v>2.1087003831922857E-2</v>
       </c>
       <c r="AH46">
-        <f t="shared" si="20"/>
-        <v>1.5146361462588485</v>
+        <f t="shared" si="22"/>
+        <v>1.5203030403846414</v>
       </c>
       <c r="AI46">
-        <f t="shared" si="21"/>
-        <v>-5.7250680980867941E-2</v>
+        <f t="shared" si="23"/>
+        <v>-6.045791257858224E-2</v>
       </c>
       <c r="AJ46">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>111.1111111111111</v>
       </c>
     </row>
@@ -6658,16 +6748,18 @@
         <v>1791</v>
       </c>
       <c r="H47">
+        <f t="shared" si="0"/>
         <v>1783</v>
       </c>
       <c r="I47">
+        <f t="shared" si="1"/>
         <v>1813</v>
       </c>
       <c r="J47">
         <v>3</v>
       </c>
       <c r="K47">
-        <v>9.506950286514243E-2</v>
+        <v>9.6076233228252886E-2</v>
       </c>
       <c r="L47">
         <v>1</v>
@@ -6676,95 +6768,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="O47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.9999999999999925E-2</v>
       </c>
       <c r="P47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.1599999999999999</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="R47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.72</v>
       </c>
       <c r="S47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="T47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.44</v>
       </c>
       <c r="U47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="V47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="W47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.999999999999999E-2</v>
       </c>
       <c r="X47">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.16</v>
       </c>
       <c r="Y47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AA47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.9999999999999962E-2</v>
       </c>
       <c r="AB47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.42</v>
       </c>
       <c r="AC47">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AD47">
-        <f t="shared" si="16"/>
-        <v>0.84950878732272217</v>
+        <f t="shared" si="18"/>
+        <v>0.85376829406094179</v>
       </c>
       <c r="AE47">
-        <f t="shared" si="17"/>
-        <v>-8.4504349229871378E-3</v>
+        <f t="shared" si="19"/>
+        <v>-1.4116239866854952E-2</v>
       </c>
       <c r="AF47">
-        <f t="shared" si="18"/>
-        <v>1.6905671397224573</v>
+        <f t="shared" si="20"/>
+        <v>1.6934203482550285</v>
       </c>
       <c r="AG47">
-        <f t="shared" si="19"/>
-        <v>-0.12927915405697732</v>
+        <f t="shared" si="21"/>
+        <v>-0.13297099576501825</v>
       </c>
       <c r="AH47">
-        <f t="shared" si="20"/>
-        <v>1.4573854652779805</v>
+        <f t="shared" si="22"/>
+        <v>1.4598451278060591</v>
       </c>
       <c r="AI47">
-        <f t="shared" si="21"/>
-        <v>-0.13426005369706528</v>
+        <f t="shared" si="23"/>
+        <v>-0.13743042230605029</v>
       </c>
       <c r="AJ47">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>107.14285714285714</v>
       </c>
     </row>
@@ -6791,16 +6883,18 @@
         <v>1821</v>
       </c>
       <c r="H48">
+        <f t="shared" si="0"/>
         <v>1813</v>
       </c>
       <c r="I48">
+        <f t="shared" si="1"/>
         <v>1842</v>
       </c>
       <c r="J48">
         <v>3</v>
       </c>
       <c r="K48">
-        <v>9.3090434034565975E-2</v>
+        <v>9.2763420963984794E-2</v>
       </c>
       <c r="L48">
         <v>1</v>
@@ -6809,95 +6903,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
       <c r="O48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="P48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.18</v>
       </c>
       <c r="Q48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.12000000000000011</v>
       </c>
       <c r="R48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.76</v>
       </c>
       <c r="S48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.42</v>
       </c>
       <c r="U48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.12000000000000005</v>
       </c>
       <c r="V48">
-        <f t="shared" si="8"/>
-        <v>0.16</v>
-      </c>
-      <c r="W48">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X48">
         <f t="shared" si="10"/>
         <v>0.16</v>
       </c>
+      <c r="W48">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <f t="shared" si="12"/>
+        <v>0.16</v>
+      </c>
       <c r="Y48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.999999999999999E-2</v>
       </c>
       <c r="Z48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.32</v>
       </c>
       <c r="AA48">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.9999999999999962E-2</v>
       </c>
       <c r="AB48">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.44</v>
       </c>
       <c r="AC48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="AD48">
-        <f t="shared" si="16"/>
-        <v>0.84105835239973503</v>
+        <f t="shared" si="18"/>
+        <v>0.83965205419408684</v>
       </c>
       <c r="AE48">
-        <f t="shared" si="17"/>
-        <v>-0.12082871913399007</v>
+        <f t="shared" si="19"/>
+        <v>-0.1188547558981633</v>
       </c>
       <c r="AF48">
-        <f t="shared" si="18"/>
-        <v>1.56128798566548</v>
+        <f t="shared" si="20"/>
+        <v>1.5604493524900103</v>
       </c>
       <c r="AG48">
-        <f t="shared" si="19"/>
-        <v>-0.27523700993911859</v>
+        <f t="shared" si="21"/>
+        <v>-0.2744192391574134</v>
       </c>
       <c r="AH48">
-        <f t="shared" si="20"/>
-        <v>1.3231254115809152</v>
+        <f t="shared" si="22"/>
+        <v>1.3224147055000088</v>
       </c>
       <c r="AI48">
-        <f t="shared" si="21"/>
-        <v>-0.33385543025294495</v>
+        <f t="shared" si="23"/>
+        <v>-0.33316077216724205</v>
       </c>
       <c r="AJ48">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
     </row>
@@ -6924,16 +7018,18 @@
         <v>1851</v>
       </c>
       <c r="H49">
+        <f t="shared" si="0"/>
         <v>1842</v>
       </c>
       <c r="I49">
+        <f t="shared" si="1"/>
         <v>1878</v>
       </c>
       <c r="J49">
         <v>3</v>
       </c>
       <c r="K49">
-        <v>6.7351950197691524E-2</v>
+        <v>6.7462018382107303E-2</v>
       </c>
       <c r="L49">
         <v>2</v>
@@ -6942,95 +7038,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.57999999999999996</v>
       </c>
       <c r="O49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="P49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.3</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-4.0000000000000036E-2</v>
       </c>
       <c r="R49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.76</v>
       </c>
       <c r="S49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="T49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.54</v>
       </c>
       <c r="U49">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.14000000000000001</v>
       </c>
       <c r="V49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.16</v>
       </c>
       <c r="W49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.999999999999999E-2</v>
       </c>
       <c r="X49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.18</v>
       </c>
       <c r="Y49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-3.999999999999998E-2</v>
       </c>
       <c r="Z49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.33999999999999997</v>
       </c>
       <c r="AA49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-1.9999999999999962E-2</v>
       </c>
       <c r="AB49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.42</v>
       </c>
       <c r="AC49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.12000000000000005</v>
       </c>
       <c r="AD49">
-        <f t="shared" si="16"/>
-        <v>0.72022963326574496</v>
+        <f t="shared" si="18"/>
+        <v>0.72079729829592354</v>
       </c>
       <c r="AE49">
-        <f t="shared" si="17"/>
-        <v>-0.15440829080512863</v>
+        <f t="shared" si="19"/>
+        <v>-0.15556448325925021</v>
       </c>
       <c r="AF49">
-        <f t="shared" si="18"/>
-        <v>1.2860509757263614</v>
+        <f t="shared" si="20"/>
+        <v>1.2860301133325969</v>
       </c>
       <c r="AG49">
-        <f t="shared" si="19"/>
-        <v>-0.15986026880809101</v>
+        <f t="shared" si="21"/>
+        <v>-0.16035467518577695</v>
       </c>
       <c r="AH49">
-        <f t="shared" si="20"/>
-        <v>0.98926998132797028</v>
+        <f t="shared" si="22"/>
+        <v>0.98925393333276679</v>
       </c>
       <c r="AI49">
-        <f t="shared" si="21"/>
-        <v>-9.5467832980136613E-2</v>
+        <f t="shared" si="23"/>
+        <v>-9.586072845433824E-2</v>
       </c>
       <c r="AJ49">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>103.44827586206897</v>
       </c>
     </row>
@@ -7057,16 +7153,18 @@
         <v>1885</v>
       </c>
       <c r="H50">
+        <f t="shared" si="0"/>
         <v>1878</v>
       </c>
       <c r="I50">
+        <f t="shared" si="1"/>
         <v>1905</v>
       </c>
       <c r="J50">
         <v>3</v>
       </c>
       <c r="K50">
-        <v>4.1007665875418237E-2</v>
+        <v>4.0920577824184928E-2</v>
       </c>
       <c r="L50">
         <v>2</v>
@@ -7075,95 +7173,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.72</v>
       </c>
       <c r="O50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.17999999999999994</v>
       </c>
       <c r="P50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.26</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-0.12000000000000011</v>
       </c>
       <c r="R50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.86</v>
       </c>
       <c r="S50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.16000000000000003</v>
       </c>
       <c r="T50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="U50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.999999999999998E-2</v>
       </c>
       <c r="V50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.18</v>
       </c>
       <c r="W50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-3.999999999999998E-2</v>
       </c>
       <c r="X50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="Y50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.999999999999999E-2</v>
       </c>
       <c r="Z50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.32</v>
       </c>
       <c r="AA50">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-1.9999999999999962E-2</v>
       </c>
       <c r="AB50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.54</v>
       </c>
       <c r="AC50">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-0.14000000000000001</v>
       </c>
       <c r="AD50">
-        <f t="shared" si="16"/>
-        <v>0.56582134246061633</v>
+        <f t="shared" si="18"/>
+        <v>0.56523281503667333</v>
       </c>
       <c r="AE50">
-        <f t="shared" si="17"/>
-        <v>-5.4519780029621545E-3</v>
+        <f t="shared" si="19"/>
+        <v>-4.7901919265267434E-3</v>
       </c>
       <c r="AF50">
-        <f t="shared" si="18"/>
-        <v>1.1261907069182704</v>
+        <f t="shared" si="20"/>
+        <v>1.1256754381468199</v>
       </c>
       <c r="AG50">
-        <f t="shared" si="19"/>
-        <v>0.22063069978626437</v>
+        <f t="shared" si="21"/>
+        <v>0.21733155611921084</v>
       </c>
       <c r="AH50">
-        <f t="shared" si="20"/>
-        <v>0.89380214834783367</v>
+        <f t="shared" si="22"/>
+        <v>0.89339320487842855</v>
       </c>
       <c r="AI50">
-        <f t="shared" si="21"/>
-        <v>0.28762013823509169</v>
+        <f t="shared" si="23"/>
+        <v>0.28468310588124757</v>
       </c>
       <c r="AJ50">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>83.333333333333343</v>
       </c>
     </row>
@@ -7190,16 +7288,18 @@
         <v>1913</v>
       </c>
       <c r="H51">
+        <f t="shared" si="0"/>
         <v>1905</v>
       </c>
       <c r="I51">
+        <f t="shared" si="1"/>
         <v>1935</v>
       </c>
       <c r="J51">
         <v>3</v>
       </c>
       <c r="K51">
-        <v>4.0204672755439999E-2</v>
+        <v>4.0215406654993978E-2</v>
       </c>
       <c r="L51">
         <v>1</v>
@@ -7208,95 +7308,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.54</v>
       </c>
       <c r="O51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.9999999999999942E-2</v>
       </c>
       <c r="P51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.1399999999999999</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="R51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.7</v>
       </c>
       <c r="S51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.0000000000000053E-2</v>
       </c>
       <c r="T51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.44</v>
       </c>
       <c r="U51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="V51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="W51">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.999999999999999E-2</v>
       </c>
       <c r="X51">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.16</v>
       </c>
       <c r="Y51">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z51">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AA51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.9999999999999962E-2</v>
       </c>
       <c r="AB51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
       <c r="AC51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.999999999999998E-2</v>
       </c>
       <c r="AD51">
-        <f t="shared" si="16"/>
-        <v>0.56036936445765417</v>
+        <f t="shared" si="18"/>
+        <v>0.56044262311014659</v>
       </c>
       <c r="AE51">
-        <f t="shared" si="17"/>
-        <v>0.22608267778922631</v>
+        <f t="shared" si="19"/>
+        <v>0.22212174804573759</v>
       </c>
       <c r="AF51">
-        <f t="shared" si="18"/>
-        <v>1.3468214067045348</v>
+        <f t="shared" si="20"/>
+        <v>1.3430069942660308</v>
       </c>
       <c r="AG51">
-        <f t="shared" si="19"/>
-        <v>0.19862329813861113</v>
+        <f t="shared" si="21"/>
+        <v>0.19772578910470351</v>
       </c>
       <c r="AH51">
-        <f t="shared" si="20"/>
-        <v>1.1814222865829254</v>
+        <f t="shared" si="22"/>
+        <v>1.1780763107596761</v>
       </c>
       <c r="AI51">
-        <f t="shared" si="21"/>
-        <v>0.12827661582652028</v>
+        <f t="shared" si="23"/>
+        <v>0.12762943785959036</v>
       </c>
       <c r="AJ51">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>111.1111111111111</v>
       </c>
     </row>
@@ -7323,16 +7423,18 @@
         <v>1943</v>
       </c>
       <c r="H52">
+        <f t="shared" si="0"/>
         <v>1935</v>
       </c>
       <c r="I52">
+        <f t="shared" si="1"/>
         <v>1964</v>
       </c>
       <c r="J52">
         <v>3</v>
       </c>
       <c r="K52">
-        <v>8.0874874014138426E-2</v>
+        <v>8.004242173191535E-2</v>
       </c>
       <c r="L52">
         <v>1</v>
@@ -7341,95 +7443,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
       <c r="O52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="P52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.18</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-5.9999999999999831E-2</v>
       </c>
       <c r="R52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.76</v>
       </c>
       <c r="S52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-4.0000000000000036E-2</v>
       </c>
       <c r="T52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.42</v>
       </c>
       <c r="U52">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1.9999999999999962E-2</v>
       </c>
       <c r="V52">
-        <f t="shared" si="8"/>
-        <v>0.16</v>
-      </c>
-      <c r="W52">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X52">
         <f t="shared" si="10"/>
         <v>0.16</v>
       </c>
+      <c r="W52">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <f t="shared" si="12"/>
+        <v>0.16</v>
+      </c>
       <c r="Y52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-1.999999999999999E-2</v>
       </c>
       <c r="Z52">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.32</v>
       </c>
       <c r="AA52">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-1.9999999999999962E-2</v>
       </c>
       <c r="AB52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.44</v>
       </c>
       <c r="AC52">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="AD52">
-        <f t="shared" si="16"/>
-        <v>0.78645204224688048</v>
+        <f t="shared" si="18"/>
+        <v>0.78256437115588418</v>
       </c>
       <c r="AE52">
-        <f t="shared" si="17"/>
-        <v>-2.7459379650615068E-2</v>
+        <f t="shared" si="19"/>
+        <v>-2.4395958941033968E-2</v>
       </c>
       <c r="AF52">
-        <f t="shared" si="18"/>
-        <v>1.5454447048431459</v>
+        <f t="shared" si="20"/>
+        <v>1.5407327833707343</v>
       </c>
       <c r="AG52">
-        <f t="shared" si="19"/>
-        <v>3.1609339211299936E-2</v>
+        <f t="shared" si="21"/>
+        <v>3.1157230133953329E-2</v>
       </c>
       <c r="AH52">
-        <f t="shared" si="20"/>
-        <v>1.3096989024094456</v>
+        <f t="shared" si="22"/>
+        <v>1.3057057486192665</v>
       </c>
       <c r="AI52">
-        <f t="shared" si="21"/>
-        <v>9.8385065496309432E-2</v>
+        <f t="shared" si="23"/>
+        <v>9.7767477724204577E-2</v>
       </c>
       <c r="AJ52">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
     </row>
@@ -7456,16 +7558,18 @@
         <v>1971</v>
       </c>
       <c r="H53">
+        <f t="shared" si="0"/>
         <v>1964</v>
       </c>
       <c r="I53">
+        <f t="shared" si="1"/>
         <v>1991</v>
       </c>
       <c r="J53">
         <v>3</v>
       </c>
       <c r="K53">
-        <v>7.5099020660860313E-2</v>
+        <v>7.4929368520133877E-2</v>
       </c>
       <c r="L53">
         <v>0</v>
@@ -7474,95 +7578,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.57999999999999996</v>
       </c>
       <c r="O53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-3.9999999999999925E-2</v>
       </c>
       <c r="P53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.1200000000000001</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="R53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.72</v>
       </c>
       <c r="S53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-3.9999999999999925E-2</v>
       </c>
       <c r="T53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="U53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.9999999999999962E-2</v>
       </c>
       <c r="V53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.16</v>
       </c>
       <c r="W53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1.999999999999999E-2</v>
       </c>
       <c r="X53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="Y53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AA53">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="AB53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.42</v>
       </c>
       <c r="AC53">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-1.9999999999999962E-2</v>
       </c>
       <c r="AD53">
-        <f t="shared" si="16"/>
-        <v>0.75899266259626541</v>
+        <f t="shared" si="18"/>
+        <v>0.75816841221485021</v>
       </c>
       <c r="AE53">
-        <f t="shared" si="17"/>
-        <v>5.9068718861915115E-2</v>
+        <f t="shared" si="19"/>
+        <v>5.5553189074987186E-2</v>
       </c>
       <c r="AF53">
-        <f t="shared" si="18"/>
-        <v>1.5770540440544458</v>
+        <f t="shared" si="20"/>
+        <v>1.5718900135046876</v>
       </c>
       <c r="AG53">
-        <f t="shared" si="19"/>
-        <v>0.13185407710067154</v>
+        <f t="shared" si="21"/>
+        <v>0.1327622907455388</v>
       </c>
       <c r="AH53">
-        <f t="shared" si="20"/>
-        <v>1.4080839679057551</v>
+        <f t="shared" si="22"/>
+        <v>1.403473226343471</v>
       </c>
       <c r="AI53">
-        <f t="shared" si="21"/>
-        <v>0.14546886950798776</v>
+        <f t="shared" si="23"/>
+        <v>0.14621068661128001</v>
       </c>
       <c r="AJ53">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>103.44827586206897</v>
       </c>
     </row>
@@ -7589,16 +7693,18 @@
         <v>1998</v>
       </c>
       <c r="H54">
+        <f t="shared" si="0"/>
         <v>1991</v>
       </c>
       <c r="I54">
+        <f t="shared" si="1"/>
         <v>2019</v>
       </c>
       <c r="J54">
         <v>3</v>
       </c>
       <c r="K54">
-        <v>8.7825922644893362E-2</v>
+        <v>8.6852173385821504E-2</v>
       </c>
       <c r="L54">
         <v>0</v>
@@ -7607,95 +7713,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.54</v>
       </c>
       <c r="O54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="P54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="R54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.68</v>
       </c>
       <c r="S54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.42</v>
       </c>
       <c r="U54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1.9999999999999962E-2</v>
       </c>
       <c r="V54">
-        <f t="shared" si="8"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="W54">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X54">
         <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
+      <c r="W54">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <f t="shared" si="12"/>
+        <v>0.14000000000000001</v>
+      </c>
       <c r="Y54">
-        <f t="shared" si="11"/>
-        <v>-2.0000000000000018E-2</v>
-      </c>
-      <c r="Z54">
-        <f t="shared" si="12"/>
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="AA54">
         <f t="shared" si="13"/>
         <v>-2.0000000000000018E-2</v>
       </c>
+      <c r="Z54">
+        <f t="shared" si="14"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AA54">
+        <f t="shared" si="15"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
       <c r="AB54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
       <c r="AC54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.9999999999999962E-2</v>
       </c>
       <c r="AD54">
-        <f t="shared" si="16"/>
-        <v>0.81806138145818053</v>
+        <f t="shared" si="18"/>
+        <v>0.81372160128983739</v>
       </c>
       <c r="AE54">
-        <f t="shared" si="17"/>
-        <v>7.2785358238756315E-2</v>
+        <f t="shared" si="19"/>
+        <v>7.7209101670551616E-2</v>
       </c>
       <c r="AF54">
-        <f t="shared" si="18"/>
-        <v>1.7089081211551174</v>
+        <f t="shared" si="20"/>
+        <v>1.7046523042502264</v>
       </c>
       <c r="AG54">
-        <f t="shared" si="19"/>
-        <v>-4.8803578761990263E-2</v>
+        <f t="shared" si="21"/>
+        <v>-4.760296315694057E-2</v>
       </c>
       <c r="AH54">
-        <f t="shared" si="20"/>
-        <v>1.5535528374137428</v>
+        <f t="shared" si="22"/>
+        <v>1.5496839129547511</v>
       </c>
       <c r="AI54">
-        <f t="shared" si="21"/>
-        <v>-1.6419001864551142E-2</v>
+        <f t="shared" si="23"/>
+        <v>-1.5378967498004936E-2</v>
       </c>
       <c r="AJ54">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>111.1111111111111</v>
       </c>
     </row>
@@ -7722,16 +7828,18 @@
         <v>2025</v>
       </c>
       <c r="H55">
+        <f t="shared" si="0"/>
         <v>2019</v>
       </c>
       <c r="I55">
+        <f t="shared" si="1"/>
         <v>2045</v>
       </c>
       <c r="J55">
         <v>3</v>
       </c>
       <c r="K55">
-        <v>0.10510264131837881</v>
+        <v>0.1051236227574374</v>
       </c>
       <c r="L55">
         <v>0</v>
@@ -7740,95 +7848,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="O55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-4.0000000000000036E-2</v>
       </c>
       <c r="P55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.08</v>
       </c>
       <c r="Q55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.68</v>
       </c>
       <c r="S55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="T55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="U55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.9999999999999962E-2</v>
       </c>
       <c r="V55">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="W55">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="X55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.12</v>
       </c>
       <c r="Y55">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="Z55">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.26</v>
       </c>
       <c r="AA55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.42</v>
       </c>
       <c r="AC55">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-1.9999999999999962E-2</v>
       </c>
       <c r="AD55">
-        <f t="shared" si="16"/>
-        <v>0.89084673969693684</v>
+        <f t="shared" si="18"/>
+        <v>0.89093070296038901</v>
       </c>
       <c r="AE55">
-        <f t="shared" si="17"/>
-        <v>-0.12158893700074658</v>
+        <f t="shared" si="19"/>
+        <v>-0.1248120648274923</v>
       </c>
       <c r="AF55">
-        <f t="shared" si="18"/>
-        <v>1.6601045423931271</v>
+        <f t="shared" si="20"/>
+        <v>1.6570493410932858</v>
       </c>
       <c r="AG55">
-        <f t="shared" si="19"/>
-        <v>-4.3528778904798671E-2</v>
+        <f t="shared" si="21"/>
+        <v>-4.9211445290342493E-2</v>
       </c>
       <c r="AH55">
-        <f t="shared" si="20"/>
-        <v>1.5371338355491917</v>
+        <f t="shared" si="22"/>
+        <v>1.5343049454567461</v>
       </c>
       <c r="AI55">
-        <f t="shared" si="21"/>
-        <v>-4.0304424911850711E-2</v>
+        <f t="shared" si="23"/>
+        <v>-4.55661530466136E-2</v>
       </c>
       <c r="AJ55">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>107.14285714285714</v>
       </c>
     </row>
@@ -7855,16 +7963,18 @@
         <v>2052</v>
       </c>
       <c r="H56">
+        <f t="shared" si="0"/>
         <v>2045</v>
       </c>
       <c r="I56">
+        <f t="shared" si="1"/>
         <v>2073</v>
       </c>
       <c r="J56">
         <v>3</v>
       </c>
       <c r="K56">
-        <v>7.7229956837279609E-2</v>
+        <v>7.6574735030424973E-2</v>
       </c>
       <c r="L56">
         <v>0</v>
@@ -7873,95 +7983,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.52</v>
       </c>
       <c r="O56">
-        <f t="shared" si="1"/>
-        <v>4.0000000000000036E-2</v>
-      </c>
-      <c r="P56">
-        <f t="shared" si="2"/>
-        <v>1.08</v>
-      </c>
-      <c r="Q56">
         <f t="shared" si="3"/>
         <v>4.0000000000000036E-2</v>
       </c>
+      <c r="P56">
+        <f t="shared" si="4"/>
+        <v>1.08</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="5"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
       <c r="R56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.66</v>
       </c>
       <c r="S56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.9999999999999925E-2</v>
       </c>
       <c r="T56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.42</v>
       </c>
       <c r="U56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.12</v>
       </c>
       <c r="W56">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="X56">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="Y56">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z56">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.26</v>
       </c>
       <c r="AA56">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AB56">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
       <c r="AC56">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.9999999999999962E-2</v>
       </c>
       <c r="AD56">
-        <f t="shared" si="16"/>
-        <v>0.76925780269619026</v>
+        <f t="shared" si="18"/>
+        <v>0.76611863813289671</v>
       </c>
       <c r="AE56">
-        <f t="shared" si="17"/>
-        <v>7.8060158095947907E-2</v>
+        <f t="shared" si="19"/>
+        <v>7.5600619537149805E-2</v>
       </c>
       <c r="AF56">
-        <f t="shared" si="18"/>
-        <v>1.6165757634883284</v>
+        <f t="shared" si="20"/>
+        <v>1.6078378958029433</v>
       </c>
       <c r="AG56">
-        <f t="shared" si="19"/>
-        <v>-5.1985467325095014E-2</v>
+        <f t="shared" si="21"/>
+        <v>-5.1418240110044255E-2</v>
       </c>
       <c r="AH56">
-        <f t="shared" si="20"/>
-        <v>1.496829410637341</v>
+        <f t="shared" si="22"/>
+        <v>1.4887387924101325</v>
       </c>
       <c r="AI56">
-        <f t="shared" si="21"/>
-        <v>-9.9873789063025464E-2</v>
+        <f t="shared" si="23"/>
+        <v>-9.9078385541472747E-2</v>
       </c>
       <c r="AJ56">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>115.38461538461539</v>
       </c>
     </row>
@@ -7988,16 +8098,18 @@
         <v>2080</v>
       </c>
       <c r="H57">
+        <f t="shared" si="0"/>
         <v>2073</v>
       </c>
       <c r="I57">
+        <f t="shared" si="1"/>
         <v>2101</v>
       </c>
       <c r="J57">
         <v>2</v>
       </c>
       <c r="K57">
-        <v>9.4554099455032653E-2</v>
+        <v>9.324434740359043E-2</v>
       </c>
       <c r="L57">
         <v>1</v>
@@ -8006,83 +8118,83 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="O57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.1200000000000001</v>
       </c>
       <c r="Q57" s="3"/>
       <c r="R57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.7</v>
       </c>
       <c r="S57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.42</v>
       </c>
       <c r="U57" s="3"/>
       <c r="V57">
-        <f t="shared" si="8"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="W57">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X57">
         <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
+      <c r="W57">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <f t="shared" si="12"/>
+        <v>0.14000000000000001</v>
+      </c>
       <c r="Y57">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="AA57">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.42</v>
       </c>
       <c r="AC57">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AD57">
-        <f t="shared" si="16"/>
-        <v>0.84731796079213817</v>
+        <f t="shared" si="18"/>
+        <v>0.84171925767004652</v>
       </c>
       <c r="AE57">
-        <f t="shared" si="17"/>
-        <v>-0.13004562542104292</v>
+        <f t="shared" si="19"/>
+        <v>-0.12701885964719395</v>
       </c>
       <c r="AF57">
-        <f t="shared" si="18"/>
-        <v>1.5645902961632334</v>
+        <f t="shared" si="20"/>
+        <v>1.5564196556928991</v>
       </c>
       <c r="AG57" s="3"/>
       <c r="AH57">
-        <f t="shared" si="20"/>
-        <v>1.3969556215743155</v>
+        <f t="shared" si="22"/>
+        <v>1.3896604068686598</v>
       </c>
       <c r="AI57" s="3"/>
       <c r="AJ57">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>107.14285714285714</v>
       </c>
     </row>
@@ -8109,6 +8221,7 @@
         <v>2108</v>
       </c>
       <c r="H58">
+        <f t="shared" si="0"/>
         <v>2101</v>
       </c>
       <c r="I58" s="3"/>
@@ -8116,57 +8229,57 @@
         <v>1</v>
       </c>
       <c r="K58">
-        <v>6.6780153381058804E-2</v>
+        <v>6.6285063410712664E-2</v>
       </c>
       <c r="L58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M58">
         <v>0.99639999999999995</v>
       </c>
       <c r="N58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="O58" s="3"/>
       <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
       <c r="R58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.7</v>
       </c>
       <c r="S58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.0000000000000053E-2</v>
       </c>
       <c r="T58" s="3"/>
       <c r="U58" s="3"/>
       <c r="V58">
-        <f t="shared" si="8"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="W58">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X58">
         <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
+      <c r="W58">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <f t="shared" si="12"/>
+        <v>0.14000000000000001</v>
+      </c>
       <c r="Y58" s="3"/>
       <c r="Z58">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="AA58" s="3"/>
       <c r="AB58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.42</v>
       </c>
       <c r="AC58" s="3"/>
       <c r="AD58">
-        <f t="shared" si="16"/>
-        <v>0.71727233537109525</v>
+        <f t="shared" si="18"/>
+        <v>0.71470039802285257</v>
       </c>
       <c r="AE58" s="3"/>
       <c r="AF58" s="3"/>
@@ -8174,7 +8287,7 @@
       <c r="AH58" s="3"/>
       <c r="AI58" s="3"/>
       <c r="AJ58">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>107.14285714285714</v>
       </c>
     </row>
@@ -8216,14 +8329,14 @@
       <c r="P59" s="3"/>
       <c r="Q59" s="3"/>
       <c r="R59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.76</v>
       </c>
       <c r="S59" s="3"/>
       <c r="T59" s="3"/>
       <c r="U59" s="3"/>
       <c r="V59">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="W59" s="3"/>
